--- a/SourceDataTables/FigS2b.xlsx
+++ b/SourceDataTables/FigS2b.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="2">
   <si>
     <t>Thalamic_Seed</t>
   </si>
@@ -39,7 +39,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -49,14 +49,30 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -74,10 +90,10 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
     </row>

--- a/SourceDataTables/FigS2b.xlsx
+++ b/SourceDataTables/FigS2b.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="2">
   <si>
     <t>Thalamic_Seed</t>
   </si>
@@ -39,7 +39,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -57,11 +57,13 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -73,6 +75,8 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -90,10 +94,10 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
     </row>

--- a/SourceDataTables/FigS2b.xlsx
+++ b/SourceDataTables/FigS2b.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Thalamic_Seed</t>
   </si>
@@ -39,7 +39,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -49,34 +49,14 @@
     </border>
     <border/>
     <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -90,14 +70,14 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.42578125" customWidth="true"/>
-    <col min="2" max="2" width="16.42578125" customWidth="true"/>
+    <col min="2" max="2" width="15.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -106,7 +86,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1.7647344393365152</v>
+        <v>1.7710010737039965</v>
       </c>
     </row>
     <row r="3">
@@ -114,7 +94,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1.713748408586742</v>
+        <v>1.7198110016953227</v>
       </c>
     </row>
     <row r="4">
@@ -122,7 +102,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1.736874743614977</v>
+        <v>1.7419848548598853</v>
       </c>
     </row>
     <row r="5">
@@ -130,7 +110,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1.65389054862306</v>
+        <v>1.6609111111074759</v>
       </c>
     </row>
     <row r="6">
@@ -138,7 +118,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1.7946509062328031</v>
+        <v>1.7986331606322623</v>
       </c>
     </row>
     <row r="7">
@@ -146,7 +126,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>1.9363120228709956</v>
+        <v>1.9406981409675705</v>
       </c>
     </row>
     <row r="8">
@@ -154,7 +134,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1.8843903020882893</v>
+        <v>1.8892660636284979</v>
       </c>
     </row>
     <row r="9">
@@ -162,7 +142,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>1.8534936062926968</v>
+        <v>1.8581196499874379</v>
       </c>
     </row>
     <row r="10">
@@ -170,7 +150,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>1.8400080753282486</v>
+        <v>1.8451382397461844</v>
       </c>
     </row>
     <row r="11">
@@ -178,7 +158,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>1.7822055417953073</v>
+        <v>1.7871275207220509</v>
       </c>
     </row>
     <row r="12">
@@ -186,7 +166,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>1.7941414813811607</v>
+        <v>1.7976505579934099</v>
       </c>
     </row>
     <row r="13">
@@ -194,7 +174,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>1.741684577074821</v>
+        <v>1.7448627491818234</v>
       </c>
     </row>
     <row r="14">
@@ -202,7 +182,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>1.7520472017748203</v>
+        <v>1.7549453764429193</v>
       </c>
     </row>
     <row r="15">
@@ -210,7 +190,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>1.7474915095041386</v>
+        <v>1.7504672067404028</v>
       </c>
     </row>
     <row r="16">
@@ -218,7 +198,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>1.7260640436920152</v>
+        <v>1.7296136658143133</v>
       </c>
     </row>
     <row r="17">
@@ -226,7 +206,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>1.6959234884112828</v>
+        <v>1.699300361237104</v>
       </c>
     </row>
     <row r="18">
@@ -234,7 +214,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>1.5401227877789148</v>
+        <v>1.5436249338476984</v>
       </c>
     </row>
     <row r="19">
@@ -242,7 +222,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>1.3831986330204229</v>
+        <v>1.3871064772277772</v>
       </c>
     </row>
     <row r="20">
@@ -250,7 +230,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>1.4156480512249838</v>
+        <v>1.4184542063687389</v>
       </c>
     </row>
     <row r="21">
@@ -258,7 +238,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>1.4491289642378802</v>
+        <v>1.4513367446771068</v>
       </c>
     </row>
     <row r="22">
@@ -266,7 +246,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>1.4555176589448002</v>
+        <v>1.4576168316425353</v>
       </c>
     </row>
     <row r="23">
@@ -274,7 +254,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>1.3467645016576706</v>
+        <v>1.3486694686129534</v>
       </c>
     </row>
     <row r="24">
@@ -282,7 +262,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>1.2708008745941604</v>
+        <v>1.2724208608868826</v>
       </c>
     </row>
     <row r="25">
@@ -290,7 +270,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>1.1849200058739764</v>
+        <v>1.1863397705311238</v>
       </c>
     </row>
     <row r="26">
@@ -298,7 +278,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>1.0195810337301121</v>
+        <v>1.0208626444576738</v>
       </c>
     </row>
     <row r="27">
@@ -306,7 +286,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>0.95071525941156243</v>
+        <v>0.95209999229007414</v>
       </c>
     </row>
     <row r="28">
@@ -314,7 +294,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>0.91178841021079515</v>
+        <v>0.91303431307883487</v>
       </c>
     </row>
     <row r="29">
@@ -322,7 +302,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>0.79356569709420399</v>
+        <v>0.79403085790894212</v>
       </c>
     </row>
     <row r="30">
@@ -330,7 +310,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>0.68981652546233596</v>
+        <v>0.68967478757210154</v>
       </c>
     </row>
     <row r="31">
@@ -338,7 +318,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>0.63864566035097159</v>
+        <v>0.63832623604753602</v>
       </c>
     </row>
     <row r="32">
@@ -346,7 +326,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>0.59188736348283344</v>
+        <v>0.59073116054867836</v>
       </c>
     </row>
     <row r="33">
@@ -354,7 +334,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>0.55421423489292077</v>
+        <v>0.55242476345330072</v>
       </c>
     </row>
     <row r="34">
@@ -362,7 +342,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>0.47828143497810899</v>
+        <v>0.47643147475196568</v>
       </c>
     </row>
     <row r="35">
@@ -370,7 +350,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>0.20221470161256447</v>
+        <v>0.20146978699800472</v>
       </c>
     </row>
     <row r="36">
@@ -378,7 +358,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>0.051821725297553432</v>
+        <v>0.050689407933085795</v>
       </c>
     </row>
     <row r="37">
@@ -386,7 +366,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>-0.023940260817312306</v>
+        <v>-0.026270387230215398</v>
       </c>
     </row>
     <row r="38">
@@ -394,7 +374,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>-0.030179034138749988</v>
+        <v>-0.032569865226870921</v>
       </c>
     </row>
     <row r="39">
@@ -402,7 +382,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>-0.051371505271981824</v>
+        <v>-0.05443367652283345</v>
       </c>
     </row>
     <row r="40">
@@ -410,7 +390,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>-0.049289400564469614</v>
+        <v>-0.053203159138869506</v>
       </c>
     </row>
     <row r="41">
@@ -418,7 +398,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>-0.084557776950890853</v>
+        <v>-0.088467292291477567</v>
       </c>
     </row>
     <row r="42">
@@ -426,7 +406,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>-0.46724089636110555</v>
+        <v>-0.47019903566124582</v>
       </c>
     </row>
     <row r="43">
@@ -434,7 +414,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>-0.54212972376582391</v>
+        <v>-0.54562894583698207</v>
       </c>
     </row>
     <row r="44">
@@ -442,7 +422,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>-0.56085694793650942</v>
+        <v>-0.56440285759864239</v>
       </c>
     </row>
     <row r="45">
@@ -450,7 +430,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>-0.56556969120078671</v>
+        <v>-0.57043280001934815</v>
       </c>
     </row>
     <row r="46">
@@ -458,7 +438,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>-0.5727595903492021</v>
+        <v>-0.57754729015564776</v>
       </c>
     </row>
     <row r="47">
@@ -466,7 +446,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>-0.94431344415574181</v>
+        <v>-0.94966693119225631</v>
       </c>
     </row>
     <row r="48">
@@ -474,7 +454,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>-0.95113040225378087</v>
+        <v>-0.95648278263773323</v>
       </c>
     </row>
     <row r="49">
@@ -482,7 +462,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>1.6479756436569108</v>
+        <v>1.6522566135133567</v>
       </c>
     </row>
     <row r="50">
@@ -490,7 +470,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>1.9702632280338568</v>
+        <v>1.9753483079083547</v>
       </c>
     </row>
     <row r="51">
@@ -498,7 +478,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>1.9128269720399882</v>
+        <v>1.9180935087243824</v>
       </c>
     </row>
     <row r="52">
@@ -506,7 +486,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>1.7696753873352109</v>
+        <v>1.775452265553461</v>
       </c>
     </row>
     <row r="53">
@@ -514,7 +494,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>1.3068882017385395</v>
+        <v>1.3164235949239393</v>
       </c>
     </row>
     <row r="54">
@@ -522,7 +502,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>2.1273821750441093</v>
+        <v>2.1291070785401689</v>
       </c>
     </row>
     <row r="55">
@@ -530,7 +510,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>2.1048411591387857</v>
+        <v>2.1073600125157426</v>
       </c>
     </row>
     <row r="56">
@@ -538,7 +518,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>2.140820677124625</v>
+        <v>2.1439039899011507</v>
       </c>
     </row>
     <row r="57">
@@ -546,7 +526,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>2.123704752604469</v>
+        <v>2.1278433722194579</v>
       </c>
     </row>
     <row r="58">
@@ -554,7 +534,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>2.0509106671531776</v>
+        <v>2.0548211461826456</v>
       </c>
     </row>
     <row r="59">
@@ -562,7 +542,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>1.7763548184560052</v>
+        <v>1.7807049008293017</v>
       </c>
     </row>
     <row r="60">
@@ -570,7 +550,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>1.9553644145490776</v>
+        <v>1.9548962719021525</v>
       </c>
     </row>
     <row r="61">
@@ -578,7 +558,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>1.9764548088023919</v>
+        <v>1.9768126449340502</v>
       </c>
     </row>
     <row r="62">
@@ -586,7 +566,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>1.9959660983631344</v>
+        <v>1.9969139013301609</v>
       </c>
     </row>
     <row r="63">
@@ -594,7 +574,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>2.0503571329819668</v>
+        <v>2.0518491834737693</v>
       </c>
     </row>
     <row r="64">
@@ -602,7 +582,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>2.0405169020941263</v>
+        <v>2.0430012751119735</v>
       </c>
     </row>
     <row r="65">
@@ -610,7 +590,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>2.0072301727696176</v>
+        <v>2.0095658300221979</v>
       </c>
     </row>
     <row r="66">
@@ -618,7 +598,7 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>1.8713211861243582</v>
+        <v>1.8741389194698745</v>
       </c>
     </row>
     <row r="67">
@@ -626,7 +606,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>1.6466007481379561</v>
+        <v>1.6501219553229876</v>
       </c>
     </row>
     <row r="68">
@@ -634,7 +614,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>1.6307584964793038</v>
+        <v>1.6310678114370731</v>
       </c>
     </row>
     <row r="69">
@@ -642,7 +622,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>1.6743159631267648</v>
+        <v>1.6744617315675909</v>
       </c>
     </row>
     <row r="70">
@@ -650,7 +630,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>1.7118183179729378</v>
+        <v>1.711377438108179</v>
       </c>
     </row>
     <row r="71">
@@ -658,7 +638,7 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>1.719961254054464</v>
+        <v>1.7205523645531018</v>
       </c>
     </row>
     <row r="72">
@@ -666,7 +646,7 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>1.6425289941006649</v>
+        <v>1.643404182361748</v>
       </c>
     </row>
     <row r="73">
@@ -674,7 +654,7 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>1.5978237290795336</v>
+        <v>1.5986150402259307</v>
       </c>
     </row>
     <row r="74">
@@ -682,7 +662,7 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>1.5450586050205732</v>
+        <v>1.546219902610863</v>
       </c>
     </row>
     <row r="75">
@@ -690,7 +670,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>1.3685225863391435</v>
+        <v>1.3696009790067414</v>
       </c>
     </row>
     <row r="76">
@@ -698,7 +678,7 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>1.2215455616886732</v>
+        <v>1.2227199616318938</v>
       </c>
     </row>
     <row r="77">
@@ -706,7 +686,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>1.0370924134016262</v>
+        <v>1.0387908527951828</v>
       </c>
     </row>
     <row r="78">
@@ -714,7 +694,7 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>1.0579982872157632</v>
+        <v>1.0578927298588121</v>
       </c>
     </row>
     <row r="79">
@@ -722,7 +702,7 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>1.0543592507302961</v>
+        <v>1.0539438917264254</v>
       </c>
     </row>
     <row r="80">
@@ -730,7 +710,7 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>0.992324506121811</v>
+        <v>0.99212933131701264</v>
       </c>
     </row>
     <row r="81">
@@ -738,7 +718,7 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>0.95345092820599364</v>
+        <v>0.95427419241314915</v>
       </c>
     </row>
     <row r="82">
@@ -746,7 +726,7 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>0.98220786191555731</v>
+        <v>0.98308907059424111</v>
       </c>
     </row>
     <row r="83">
@@ -754,7 +734,7 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>1.0741506525199451</v>
+        <v>1.0678122881170462</v>
       </c>
     </row>
     <row r="84">
@@ -762,7 +742,7 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>0.91597052095678599</v>
+        <v>0.91432136428893473</v>
       </c>
     </row>
     <row r="85">
@@ -770,7 +750,7 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>0.78860459532950766</v>
+        <v>0.7872543280590858</v>
       </c>
     </row>
     <row r="86">
@@ -778,7 +758,7 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>0.70771648956633082</v>
+        <v>0.70658253878127975</v>
       </c>
     </row>
     <row r="87">
@@ -786,7 +766,7 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>0.33862511832877168</v>
+        <v>0.33804669612839816</v>
       </c>
     </row>
     <row r="88">
@@ -794,7 +774,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>0.21526641227173604</v>
+        <v>0.21388206669622201</v>
       </c>
     </row>
     <row r="89">
@@ -802,7 +782,7 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>0.18563235536379402</v>
+        <v>0.18508406167958802</v>
       </c>
     </row>
     <row r="90">
@@ -810,7 +790,7 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>0.21407095913327681</v>
+        <v>0.21292355002187668</v>
       </c>
     </row>
     <row r="91">
@@ -818,7 +798,7 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>0.25283778883355185</v>
+        <v>0.25173220113618988</v>
       </c>
     </row>
     <row r="92">
@@ -826,7 +806,7 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>0.27088890618152023</v>
+        <v>0.26853054728020986</v>
       </c>
     </row>
     <row r="93">
@@ -834,7 +814,7 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>0.25910420230799192</v>
+        <v>0.25563540116492089</v>
       </c>
     </row>
     <row r="94">
@@ -842,7 +822,7 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>0.17786340483847346</v>
+        <v>0.17422330233409969</v>
       </c>
     </row>
     <row r="95">
@@ -850,7 +830,7 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>0.20881923577232914</v>
+        <v>0.20552335271524849</v>
       </c>
     </row>
     <row r="96">
@@ -858,7 +838,7 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>0.15606540061291863</v>
+        <v>0.15338550403643467</v>
       </c>
     </row>
     <row r="97">
@@ -866,7 +846,7 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>-0.15824888421054972</v>
+        <v>-0.15979448443922672</v>
       </c>
     </row>
     <row r="98">
@@ -874,7 +854,7 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>-0.27911511843959108</v>
+        <v>-0.28074851683758018</v>
       </c>
     </row>
     <row r="99">
@@ -882,7 +862,7 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>-0.36894746672788331</v>
+        <v>-0.37009164820100804</v>
       </c>
     </row>
     <row r="100">
@@ -890,7 +870,7 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>-0.38442592186258784</v>
+        <v>-0.38590446010173274</v>
       </c>
     </row>
     <row r="101">
@@ -898,7 +878,7 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>-0.36474398073465364</v>
+        <v>-0.36621234160797467</v>
       </c>
     </row>
     <row r="102">
@@ -906,7 +886,7 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <v>-0.37357002245140986</v>
+        <v>-0.3766347274938468</v>
       </c>
     </row>
     <row r="103">
@@ -914,7 +894,7 @@
         <v>102</v>
       </c>
       <c r="B103">
-        <v>-0.39738041281662978</v>
+        <v>-0.40107106528405662</v>
       </c>
     </row>
     <row r="104">
@@ -922,7 +902,7 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <v>-0.3906127249497332</v>
+        <v>-0.39471187181371636</v>
       </c>
     </row>
     <row r="105">
@@ -930,7 +910,7 @@
         <v>104</v>
       </c>
       <c r="B105">
-        <v>-0.29954973148484604</v>
+        <v>-0.3035441331298549</v>
       </c>
     </row>
     <row r="106">
@@ -938,7 +918,7 @@
         <v>105</v>
       </c>
       <c r="B106">
-        <v>-0.27121840870097602</v>
+        <v>-0.27495517642198308</v>
       </c>
     </row>
     <row r="107">
@@ -946,7 +926,7 @@
         <v>106</v>
       </c>
       <c r="B107">
-        <v>-0.53410676509580135</v>
+        <v>-0.53643014073281081</v>
       </c>
     </row>
     <row r="108">
@@ -954,7 +934,7 @@
         <v>107</v>
       </c>
       <c r="B108">
-        <v>-0.67027904176230091</v>
+        <v>-0.67274837856537162</v>
       </c>
     </row>
     <row r="109">
@@ -962,7 +942,7 @@
         <v>108</v>
       </c>
       <c r="B109">
-        <v>-0.77050070870771126</v>
+        <v>-0.77267184046570159</v>
       </c>
     </row>
     <row r="110">
@@ -970,7 +950,7 @@
         <v>109</v>
       </c>
       <c r="B110">
-        <v>-0.82937474632599495</v>
+        <v>-0.83125496324202852</v>
       </c>
     </row>
     <row r="111">
@@ -978,7 +958,7 @@
         <v>110</v>
       </c>
       <c r="B111">
-        <v>-0.83352322440240711</v>
+        <v>-0.8354128786932995</v>
       </c>
     </row>
     <row r="112">
@@ -986,7 +966,7 @@
         <v>111</v>
       </c>
       <c r="B112">
-        <v>-0.88339933924807479</v>
+        <v>-0.88643336234190351</v>
       </c>
     </row>
     <row r="113">
@@ -994,7 +974,7 @@
         <v>112</v>
       </c>
       <c r="B113">
-        <v>-0.8869027253854751</v>
+        <v>-0.89037939709270808</v>
       </c>
     </row>
     <row r="114">
@@ -1002,7 +982,7 @@
         <v>113</v>
       </c>
       <c r="B114">
-        <v>-0.84488930644943339</v>
+        <v>-0.84887482365017641</v>
       </c>
     </row>
     <row r="115">
@@ -1010,7 +990,7 @@
         <v>114</v>
       </c>
       <c r="B115">
-        <v>-0.76014290522343242</v>
+        <v>-0.76403916454768406</v>
       </c>
     </row>
     <row r="116">
@@ -1018,7 +998,7 @@
         <v>115</v>
       </c>
       <c r="B116">
-        <v>-0.65977282733893994</v>
+        <v>-0.66298338354863051</v>
       </c>
     </row>
     <row r="117">
@@ -1026,7 +1006,7 @@
         <v>116</v>
       </c>
       <c r="B117">
-        <v>-0.71283976633110369</v>
+        <v>-0.71530734733348289</v>
       </c>
     </row>
     <row r="118">
@@ -1034,7 +1014,7 @@
         <v>117</v>
       </c>
       <c r="B118">
-        <v>-0.81463526359410554</v>
+        <v>-0.8168345754127414</v>
       </c>
     </row>
     <row r="119">
@@ -1042,7 +1022,7 @@
         <v>118</v>
       </c>
       <c r="B119">
-        <v>-0.87016503033888071</v>
+        <v>-0.87209843732646353</v>
       </c>
     </row>
     <row r="120">
@@ -1050,7 +1030,7 @@
         <v>119</v>
       </c>
       <c r="B120">
-        <v>-0.88114035864038498</v>
+        <v>-0.88307930404725199</v>
       </c>
     </row>
     <row r="121">
@@ -1058,7 +1038,7 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>-0.91968830473663499</v>
+        <v>-0.92273703042207667</v>
       </c>
     </row>
     <row r="122">
@@ -1066,7 +1046,7 @@
         <v>121</v>
       </c>
       <c r="B122">
-        <v>-0.94128221186708816</v>
+        <v>-0.9447798424477738</v>
       </c>
     </row>
     <row r="123">
@@ -1074,7 +1054,7 @@
         <v>122</v>
       </c>
       <c r="B123">
-        <v>-0.90697752721167146</v>
+        <v>-0.91098773275300038</v>
       </c>
     </row>
     <row r="124">
@@ -1082,7 +1062,7 @@
         <v>123</v>
       </c>
       <c r="B124">
-        <v>-0.8245419912459484</v>
+        <v>-0.82847727066453125</v>
       </c>
     </row>
     <row r="125">
@@ -1090,7 +1070,7 @@
         <v>124</v>
       </c>
       <c r="B125">
-        <v>-1.1929475664870237</v>
+        <v>-1.1962685833828743</v>
       </c>
     </row>
     <row r="126">
@@ -1098,7 +1078,7 @@
         <v>125</v>
       </c>
       <c r="B126">
-        <v>-1.2028989432936468</v>
+        <v>-1.2062616195082219</v>
       </c>
     </row>
     <row r="127">
@@ -1106,7 +1086,7 @@
         <v>126</v>
       </c>
       <c r="B127">
-        <v>-1.263193334077902</v>
+        <v>-1.2659392311252158</v>
       </c>
     </row>
     <row r="128">
@@ -1114,7 +1094,7 @@
         <v>127</v>
       </c>
       <c r="B128">
-        <v>-1.265304526790352</v>
+        <v>-1.2684067842356948</v>
       </c>
     </row>
     <row r="129">
@@ -1122,7 +1102,7 @@
         <v>128</v>
       </c>
       <c r="B129">
-        <v>-1.2191148149260602</v>
+        <v>-1.2225553415057657</v>
       </c>
     </row>
     <row r="130">
@@ -1130,7 +1110,7 @@
         <v>129</v>
       </c>
       <c r="B130">
-        <v>-1.1234872055771972</v>
+        <v>-1.1263303000491764</v>
       </c>
     </row>
     <row r="131">
@@ -1138,7 +1118,7 @@
         <v>130</v>
       </c>
       <c r="B131">
-        <v>1.7059193973108835</v>
+        <v>1.7103524228982172</v>
       </c>
     </row>
     <row r="132">
@@ -1146,7 +1126,7 @@
         <v>131</v>
       </c>
       <c r="B132">
-        <v>1.55884004849281</v>
+        <v>1.5632368480675161</v>
       </c>
     </row>
     <row r="133">
@@ -1154,7 +1134,7 @@
         <v>132</v>
       </c>
       <c r="B133">
-        <v>1.9655385224945108</v>
+        <v>1.9705977339511489</v>
       </c>
     </row>
     <row r="134">
@@ -1162,7 +1142,7 @@
         <v>133</v>
       </c>
       <c r="B134">
-        <v>1.917377447324818</v>
+        <v>1.9226498350684391</v>
       </c>
     </row>
     <row r="135">
@@ -1170,7 +1150,7 @@
         <v>134</v>
       </c>
       <c r="B135">
-        <v>1.7409086133755949</v>
+        <v>1.7466559024602712</v>
       </c>
     </row>
     <row r="136">
@@ -1178,7 +1158,7 @@
         <v>135</v>
       </c>
       <c r="B136">
-        <v>1.237744273851288</v>
+        <v>1.2470468894416256</v>
       </c>
     </row>
     <row r="137">
@@ -1186,7 +1166,7 @@
         <v>136</v>
       </c>
       <c r="B137">
-        <v>2.1533561199077957</v>
+        <v>2.1551187166560206</v>
       </c>
     </row>
     <row r="138">
@@ -1194,7 +1174,7 @@
         <v>137</v>
       </c>
       <c r="B138">
-        <v>2.1263517092999584</v>
+        <v>2.1289019458961889</v>
       </c>
     </row>
     <row r="139">
@@ -1202,7 +1182,7 @@
         <v>138</v>
       </c>
       <c r="B139">
-        <v>2.1254318938790924</v>
+        <v>2.1285038567586265</v>
       </c>
     </row>
     <row r="140">
@@ -1210,7 +1190,7 @@
         <v>139</v>
       </c>
       <c r="B140">
-        <v>2.0873521418967478</v>
+        <v>2.0914601470308947</v>
       </c>
     </row>
     <row r="141">
@@ -1218,7 +1198,7 @@
         <v>140</v>
       </c>
       <c r="B141">
-        <v>1.968631805029593</v>
+        <v>1.9724339285131018</v>
       </c>
     </row>
     <row r="142">
@@ -1226,7 +1206,7 @@
         <v>141</v>
       </c>
       <c r="B142">
-        <v>1.6365957589990798</v>
+        <v>1.6407115685718701</v>
       </c>
     </row>
     <row r="143">
@@ -1234,7 +1214,7 @@
         <v>142</v>
       </c>
       <c r="B143">
-        <v>1.9384522217104874</v>
+        <v>1.9378925778818261</v>
       </c>
     </row>
     <row r="144">
@@ -1242,7 +1222,7 @@
         <v>143</v>
       </c>
       <c r="B144">
-        <v>2.0032448503691986</v>
+        <v>2.0036390609424668</v>
       </c>
     </row>
     <row r="145">
@@ -1250,7 +1230,7 @@
         <v>144</v>
       </c>
       <c r="B145">
-        <v>2.0301014817565148</v>
+        <v>2.0310598450951667</v>
       </c>
     </row>
     <row r="146">
@@ -1258,7 +1238,7 @@
         <v>145</v>
       </c>
       <c r="B146">
-        <v>2.0633174578176252</v>
+        <v>2.0648240751580014</v>
       </c>
     </row>
     <row r="147">
@@ -1266,7 +1246,7 @@
         <v>146</v>
       </c>
       <c r="B147">
-        <v>2.0605889496835448</v>
+        <v>2.0631415728833113</v>
       </c>
     </row>
     <row r="148">
@@ -1274,7 +1254,7 @@
         <v>147</v>
       </c>
       <c r="B148">
-        <v>2.0034919205088491</v>
+        <v>2.0059040779190229</v>
       </c>
     </row>
     <row r="149">
@@ -1282,7 +1262,7 @@
         <v>148</v>
       </c>
       <c r="B149">
-        <v>1.8357918790635992</v>
+        <v>1.8386553138332142</v>
       </c>
     </row>
     <row r="150">
@@ -1290,7 +1270,7 @@
         <v>149</v>
       </c>
       <c r="B150">
-        <v>1.5481576865727298</v>
+        <v>1.5516034647214438</v>
       </c>
     </row>
     <row r="151">
@@ -1298,7 +1278,7 @@
         <v>150</v>
       </c>
       <c r="B151">
-        <v>1.6730332580477678</v>
+        <v>1.6733447375441788</v>
       </c>
     </row>
     <row r="152">
@@ -1306,7 +1286,7 @@
         <v>151</v>
       </c>
       <c r="B152">
-        <v>1.7058004102282298</v>
+        <v>1.7059219352956376</v>
       </c>
     </row>
     <row r="153">
@@ -1314,7 +1294,7 @@
         <v>152</v>
       </c>
       <c r="B153">
-        <v>1.7060396268484506</v>
+        <v>1.70544985231539</v>
       </c>
     </row>
     <row r="154">
@@ -1322,7 +1302,7 @@
         <v>153</v>
       </c>
       <c r="B154">
-        <v>1.7005962790261429</v>
+        <v>1.7010241245546212</v>
       </c>
     </row>
     <row r="155">
@@ -1330,7 +1310,7 @@
         <v>154</v>
       </c>
       <c r="B155">
-        <v>1.650234288093225</v>
+        <v>1.6511398096782017</v>
       </c>
     </row>
     <row r="156">
@@ -1338,7 +1318,7 @@
         <v>155</v>
       </c>
       <c r="B156">
-        <v>1.6389423263350005</v>
+        <v>1.6399084381172568</v>
       </c>
     </row>
     <row r="157">
@@ -1346,7 +1326,7 @@
         <v>156</v>
       </c>
       <c r="B157">
-        <v>1.5737834593305733</v>
+        <v>1.5751306126961857</v>
       </c>
     </row>
     <row r="158">
@@ -1354,7 +1334,7 @@
         <v>157</v>
       </c>
       <c r="B158">
-        <v>1.390441181166965</v>
+        <v>1.3917410077969685</v>
       </c>
     </row>
     <row r="159">
@@ -1362,7 +1342,7 @@
         <v>158</v>
       </c>
       <c r="B159">
-        <v>1.1909547273159302</v>
+        <v>1.1921870068027383</v>
       </c>
     </row>
     <row r="160">
@@ -1370,7 +1350,7 @@
         <v>159</v>
       </c>
       <c r="B160">
-        <v>0.89638157455642486</v>
+        <v>0.89793457363236684</v>
       </c>
     </row>
     <row r="161">
@@ -1378,7 +1358,7 @@
         <v>160</v>
       </c>
       <c r="B161">
-        <v>1.088348228886663</v>
+        <v>1.0889653872144009</v>
       </c>
     </row>
     <row r="162">
@@ -1386,7 +1366,7 @@
         <v>161</v>
       </c>
       <c r="B162">
-        <v>1.0112264720178603</v>
+        <v>1.0108280444987856</v>
       </c>
     </row>
     <row r="163">
@@ -1394,7 +1374,7 @@
         <v>162</v>
       </c>
       <c r="B163">
-        <v>0.97488305888476268</v>
+        <v>0.97412092964175112</v>
       </c>
     </row>
     <row r="164">
@@ -1402,7 +1382,7 @@
         <v>163</v>
       </c>
       <c r="B164">
-        <v>0.92919587461274655</v>
+        <v>0.92875099001428352</v>
       </c>
     </row>
     <row r="165">
@@ -1410,7 +1390,7 @@
         <v>164</v>
       </c>
       <c r="B165">
-        <v>0.9737036301467088</v>
+        <v>0.97454900125203159</v>
       </c>
     </row>
     <row r="166">
@@ -1418,7 +1398,7 @@
         <v>165</v>
       </c>
       <c r="B166">
-        <v>1.0502780481857852</v>
+        <v>1.0513604500001388</v>
       </c>
     </row>
     <row r="167">
@@ -1426,7 +1406,7 @@
         <v>166</v>
       </c>
       <c r="B167">
-        <v>1.1606418679934867</v>
+        <v>1.1545585973176644</v>
       </c>
     </row>
     <row r="168">
@@ -1434,7 +1414,7 @@
         <v>167</v>
       </c>
       <c r="B168">
-        <v>0.99868183330922045</v>
+        <v>0.99732492694230768</v>
       </c>
     </row>
     <row r="169">
@@ -1442,7 +1422,7 @@
         <v>168</v>
       </c>
       <c r="B169">
-        <v>0.86108080897634809</v>
+        <v>0.86005417377699889</v>
       </c>
     </row>
     <row r="170">
@@ -1450,7 +1430,7 @@
         <v>169</v>
       </c>
       <c r="B170">
-        <v>0.71172159718875472</v>
+        <v>0.710799330942678</v>
       </c>
     </row>
     <row r="171">
@@ -1458,7 +1438,7 @@
         <v>170</v>
       </c>
       <c r="B171">
-        <v>0.32283760053537508</v>
+        <v>0.32218999067421356</v>
       </c>
     </row>
     <row r="172">
@@ -1466,7 +1446,7 @@
         <v>171</v>
       </c>
       <c r="B172">
-        <v>0.23200029812268488</v>
+        <v>0.23107585725703561</v>
       </c>
     </row>
     <row r="173">
@@ -1474,7 +1454,7 @@
         <v>172</v>
       </c>
       <c r="B173">
-        <v>0.15091319365123956</v>
+        <v>0.14934280379398507</v>
       </c>
     </row>
     <row r="174">
@@ -1482,7 +1462,7 @@
         <v>173</v>
       </c>
       <c r="B174">
-        <v>0.14772382972120693</v>
+        <v>0.1470522863460399</v>
       </c>
     </row>
     <row r="175">
@@ -1490,7 +1470,7 @@
         <v>174</v>
       </c>
       <c r="B175">
-        <v>0.21594441779086246</v>
+        <v>0.21475922815118986</v>
       </c>
     </row>
     <row r="176">
@@ -1498,7 +1478,7 @@
         <v>175</v>
       </c>
       <c r="B176">
-        <v>0.31648429430343111</v>
+        <v>0.31552064432633187</v>
       </c>
     </row>
     <row r="177">
@@ -1506,7 +1486,7 @@
         <v>176</v>
       </c>
       <c r="B177">
-        <v>0.36448499698103182</v>
+        <v>0.3623383175881052</v>
       </c>
     </row>
     <row r="178">
@@ -1514,7 +1494,7 @@
         <v>177</v>
       </c>
       <c r="B178">
-        <v>0.37645956228979377</v>
+        <v>0.37329395631000567</v>
       </c>
     </row>
     <row r="179">
@@ -1522,7 +1502,7 @@
         <v>178</v>
       </c>
       <c r="B179">
-        <v>0.3388789806109801</v>
+        <v>0.33574115030817842</v>
       </c>
     </row>
     <row r="180">
@@ -1530,7 +1510,7 @@
         <v>179</v>
       </c>
       <c r="B180">
-        <v>0.29960698318033452</v>
+        <v>0.29670554758816453</v>
       </c>
     </row>
     <row r="181">
@@ -1538,7 +1518,7 @@
         <v>180</v>
       </c>
       <c r="B181">
-        <v>0.24535212162408396</v>
+        <v>0.24310476554789398</v>
       </c>
     </row>
     <row r="182">
@@ -1546,7 +1526,7 @@
         <v>181</v>
       </c>
       <c r="B182">
-        <v>-0.12089111428580297</v>
+        <v>-0.1227819822878419</v>
       </c>
     </row>
     <row r="183">
@@ -1554,7 +1534,7 @@
         <v>182</v>
       </c>
       <c r="B183">
-        <v>-0.23287271643233245</v>
+        <v>-0.23459575484773915</v>
       </c>
     </row>
     <row r="184">
@@ -1562,7 +1542,7 @@
         <v>183</v>
       </c>
       <c r="B184">
-        <v>-0.31830471736845295</v>
+        <v>-0.32001811672135311</v>
       </c>
     </row>
     <row r="185">
@@ -1570,7 +1550,7 @@
         <v>184</v>
       </c>
       <c r="B185">
-        <v>-0.38323431141574232</v>
+        <v>-0.38437948244413472</v>
       </c>
     </row>
     <row r="186">
@@ -1578,7 +1558,7 @@
         <v>185</v>
       </c>
       <c r="B186">
-        <v>-0.37848094330565474</v>
+        <v>-0.37994425648187774</v>
       </c>
     </row>
     <row r="187">
@@ -1586,7 +1566,7 @@
         <v>186</v>
       </c>
       <c r="B187">
-        <v>-0.3407401953329609</v>
+        <v>-0.34216793607202339</v>
       </c>
     </row>
     <row r="188">
@@ -1594,7 +1574,7 @@
         <v>187</v>
       </c>
       <c r="B188">
-        <v>-0.33960626712410635</v>
+        <v>-0.34261157257510877</v>
       </c>
     </row>
     <row r="189">
@@ -1602,7 +1582,7 @@
         <v>188</v>
       </c>
       <c r="B189">
-        <v>-0.35823278407174741</v>
+        <v>-0.3618690399776302</v>
       </c>
     </row>
     <row r="190">
@@ -1610,7 +1590,7 @@
         <v>189</v>
       </c>
       <c r="B190">
-        <v>-0.29901761306858926</v>
+        <v>-0.30290267420359418</v>
       </c>
     </row>
     <row r="191">
@@ -1618,7 +1598,7 @@
         <v>190</v>
       </c>
       <c r="B191">
-        <v>-0.20688387046889886</v>
+        <v>-0.21060406970694759</v>
       </c>
     </row>
     <row r="192">
@@ -1626,7 +1606,7 @@
         <v>191</v>
       </c>
       <c r="B192">
-        <v>-0.14827063864974765</v>
+        <v>-0.15158088236251718</v>
       </c>
     </row>
     <row r="193">
@@ -1634,7 +1614,7 @@
         <v>192</v>
       </c>
       <c r="B193">
-        <v>-0.47313341420675598</v>
+        <v>-0.47619066336994359</v>
       </c>
     </row>
     <row r="194">
@@ -1642,7 +1622,7 @@
         <v>193</v>
       </c>
       <c r="B194">
-        <v>-0.58832299151616985</v>
+        <v>-0.59073746586189979</v>
       </c>
     </row>
     <row r="195">
@@ -1650,7 +1630,7 @@
         <v>194</v>
       </c>
       <c r="B195">
-        <v>-0.69834610192248159</v>
+        <v>-0.70083487203131112</v>
       </c>
     </row>
     <row r="196">
@@ -1658,7 +1638,7 @@
         <v>195</v>
       </c>
       <c r="B196">
-        <v>-0.79000451011412365</v>
+        <v>-0.79218267312202595</v>
       </c>
     </row>
     <row r="197">
@@ -1666,7 +1646,7 @@
         <v>196</v>
       </c>
       <c r="B197">
-        <v>-0.84161345342368121</v>
+        <v>-0.84351231623105238</v>
       </c>
     </row>
     <row r="198">
@@ -1674,7 +1654,7 @@
         <v>197</v>
       </c>
       <c r="B198">
-        <v>-0.84538679071883061</v>
+        <v>-0.84728019510121988</v>
       </c>
     </row>
     <row r="199">
@@ -1682,7 +1662,7 @@
         <v>198</v>
       </c>
       <c r="B199">
-        <v>-0.89110990821406866</v>
+        <v>-0.89413802094998673</v>
       </c>
     </row>
     <row r="200">
@@ -1690,7 +1670,7 @@
         <v>199</v>
       </c>
       <c r="B200">
-        <v>-0.90524530240503698</v>
+        <v>-0.90874761720080077</v>
       </c>
     </row>
     <row r="201">
@@ -1698,7 +1678,7 @@
         <v>200</v>
       </c>
       <c r="B201">
-        <v>-0.83452075889969068</v>
+        <v>-0.83847251720870841</v>
       </c>
     </row>
     <row r="202">
@@ -1706,7 +1686,7 @@
         <v>201</v>
       </c>
       <c r="B202">
-        <v>-0.71461816150691126</v>
+        <v>-0.7183914101703347</v>
       </c>
     </row>
     <row r="203">
@@ -1714,7 +1694,7 @@
         <v>202</v>
       </c>
       <c r="B203">
-        <v>-0.58775498529652426</v>
+        <v>-0.59076045733449667</v>
       </c>
     </row>
     <row r="204">
@@ -1722,7 +1702,7 @@
         <v>203</v>
       </c>
       <c r="B204">
-        <v>-0.51152036583450555</v>
+        <v>-0.51364661961504487</v>
       </c>
     </row>
     <row r="205">
@@ -1730,7 +1710,7 @@
         <v>204</v>
       </c>
       <c r="B205">
-        <v>-0.6336700435485948</v>
+        <v>-0.63606797434432483</v>
       </c>
     </row>
     <row r="206">
@@ -1738,7 +1718,7 @@
         <v>205</v>
       </c>
       <c r="B206">
-        <v>-0.73955554100216114</v>
+        <v>-0.74204184065503376</v>
       </c>
     </row>
     <row r="207">
@@ -1746,7 +1726,7 @@
         <v>206</v>
       </c>
       <c r="B207">
-        <v>-0.84055100300141772</v>
+        <v>-0.84277899342942919</v>
       </c>
     </row>
     <row r="208">
@@ -1754,7 +1734,7 @@
         <v>207</v>
       </c>
       <c r="B208">
-        <v>-0.89982991914306787</v>
+        <v>-0.90178927090179284</v>
       </c>
     </row>
     <row r="209">
@@ -1762,7 +1742,7 @@
         <v>208</v>
       </c>
       <c r="B209">
-        <v>-0.90342538305123066</v>
+        <v>-0.90537077501531371</v>
       </c>
     </row>
     <row r="210">
@@ -1770,7 +1750,7 @@
         <v>209</v>
       </c>
       <c r="B210">
-        <v>-0.9482705112914982</v>
+        <v>-0.95133660118742869</v>
       </c>
     </row>
     <row r="211">
@@ -1778,7 +1758,7 @@
         <v>210</v>
       </c>
       <c r="B211">
-        <v>-0.9718935976651184</v>
+        <v>-0.9754175623940522</v>
       </c>
     </row>
     <row r="212">
@@ -1786,7 +1766,7 @@
         <v>211</v>
       </c>
       <c r="B212">
-        <v>-0.9281307848739162</v>
+        <v>-0.93212796814211796</v>
       </c>
     </row>
     <row r="213">
@@ -1794,7 +1774,7 @@
         <v>212</v>
       </c>
       <c r="B213">
-        <v>-0.80536632004534714</v>
+        <v>-0.80919964875470007</v>
       </c>
     </row>
     <row r="214">
@@ -1802,7 +1782,7 @@
         <v>213</v>
       </c>
       <c r="B214">
-        <v>-0.67772900746076536</v>
+        <v>-0.68084795596221448</v>
       </c>
     </row>
     <row r="215">
@@ -1810,7 +1790,7 @@
         <v>214</v>
       </c>
       <c r="B215">
-        <v>-0.58909729346976436</v>
+        <v>-0.5913807647353474</v>
       </c>
     </row>
     <row r="216">
@@ -1818,7 +1798,7 @@
         <v>215</v>
       </c>
       <c r="B216">
-        <v>-1.013590923461166</v>
+        <v>-1.0172398180633342</v>
       </c>
     </row>
     <row r="217">
@@ -1826,7 +1806,7 @@
         <v>216</v>
       </c>
       <c r="B217">
-        <v>-1.1316637592082568</v>
+        <v>-1.1352432420469625</v>
       </c>
     </row>
     <row r="218">
@@ -1834,7 +1814,7 @@
         <v>217</v>
       </c>
       <c r="B218">
-        <v>-1.2333874673947467</v>
+        <v>-1.2367560795170176</v>
       </c>
     </row>
     <row r="219">
@@ -1842,7 +1822,7 @@
         <v>218</v>
       </c>
       <c r="B219">
-        <v>-1.2473347739696778</v>
+        <v>-1.2507445249413436</v>
       </c>
     </row>
     <row r="220">
@@ -1850,7 +1830,7 @@
         <v>219</v>
       </c>
       <c r="B220">
-        <v>-1.2999594980528666</v>
+        <v>-1.3027053520469702</v>
       </c>
     </row>
     <row r="221">
@@ -1858,7 +1838,7 @@
         <v>220</v>
       </c>
       <c r="B221">
-        <v>-1.3100852445982352</v>
+        <v>-1.3131998313303752</v>
       </c>
     </row>
     <row r="222">
@@ -1866,7 +1846,7 @@
         <v>221</v>
       </c>
       <c r="B222">
-        <v>-1.242631764697637</v>
+        <v>-1.2460314748710031</v>
       </c>
     </row>
     <row r="223">
@@ -1874,7 +1854,7 @@
         <v>222</v>
       </c>
       <c r="B223">
-        <v>-1.1046650898966119</v>
+        <v>-1.1074071155510623</v>
       </c>
     </row>
     <row r="224">
@@ -1882,7 +1862,7 @@
         <v>223</v>
       </c>
       <c r="B224">
-        <v>-0.94206786193788306</v>
+        <v>-0.94372422553228241</v>
       </c>
     </row>
     <row r="225">
@@ -1890,7 +1870,7 @@
         <v>224</v>
       </c>
       <c r="B225">
-        <v>-0.79377309788006822</v>
+        <v>-0.7949441798068928</v>
       </c>
     </row>
     <row r="226">
@@ -1898,7 +1878,7 @@
         <v>225</v>
       </c>
       <c r="B226">
-        <v>-1.1342974480708237</v>
+        <v>-1.1399865461744458</v>
       </c>
     </row>
     <row r="227">
@@ -1906,7 +1886,7 @@
         <v>226</v>
       </c>
       <c r="B227">
-        <v>-1.2967249019569351</v>
+        <v>-1.3017823896743277</v>
       </c>
     </row>
     <row r="228">
@@ -1914,7 +1894,7 @@
         <v>227</v>
       </c>
       <c r="B228">
-        <v>-1.4158602252695081</v>
+        <v>-1.4198286590068845</v>
       </c>
     </row>
     <row r="229">
@@ -1922,7 +1902,7 @@
         <v>228</v>
       </c>
       <c r="B229">
-        <v>-1.4334339174923527</v>
+        <v>-1.4374600768732091</v>
       </c>
     </row>
     <row r="230">
@@ -1930,7 +1910,7 @@
         <v>229</v>
       </c>
       <c r="B230">
-        <v>-1.527246733136562</v>
+        <v>-1.5307688111783715</v>
       </c>
     </row>
     <row r="231">
@@ -1938,7 +1918,7 @@
         <v>230</v>
       </c>
       <c r="B231">
-        <v>-1.5600100954393832</v>
+        <v>-1.5626172707055348</v>
       </c>
     </row>
     <row r="232">
@@ -1946,7 +1926,7 @@
         <v>231</v>
       </c>
       <c r="B232">
-        <v>-1.4843151521530722</v>
+        <v>-1.4864056974392421</v>
       </c>
     </row>
     <row r="233">
@@ -1954,7 +1934,7 @@
         <v>232</v>
       </c>
       <c r="B233">
-        <v>-1.2834129483617494</v>
+        <v>-1.2850480235012609</v>
       </c>
     </row>
     <row r="234">
@@ -1962,7 +1942,7 @@
         <v>233</v>
       </c>
       <c r="B234">
-        <v>-1.0533145808007789</v>
+        <v>-1.0537786198853232</v>
       </c>
     </row>
     <row r="235">
@@ -1970,7 +1950,7 @@
         <v>234</v>
       </c>
       <c r="B235">
-        <v>-1.2882504187034478</v>
+        <v>-1.2948328926549086</v>
       </c>
     </row>
     <row r="236">
@@ -1978,7 +1958,7 @@
         <v>235</v>
       </c>
       <c r="B236">
-        <v>-1.4671954282678576</v>
+        <v>-1.4727087915394794</v>
       </c>
     </row>
     <row r="237">
@@ -1986,7 +1966,7 @@
         <v>236</v>
       </c>
       <c r="B237">
-        <v>-1.484008011248795</v>
+        <v>-1.4895583776787586</v>
       </c>
     </row>
     <row r="238">
@@ -1994,7 +1974,7 @@
         <v>237</v>
       </c>
       <c r="B238">
-        <v>-1.6092569991006644</v>
+        <v>-1.6128734350031919</v>
       </c>
     </row>
     <row r="239">
@@ -2002,7 +1982,7 @@
         <v>238</v>
       </c>
       <c r="B239">
-        <v>-1.6520014147044859</v>
+        <v>-1.6543215239005222</v>
       </c>
     </row>
     <row r="240">
@@ -2010,7 +1990,7 @@
         <v>239</v>
       </c>
       <c r="B240">
-        <v>-1.5821147948551422</v>
+        <v>-1.5838180257626466</v>
       </c>
     </row>
     <row r="241">
@@ -2018,7 +1998,7 @@
         <v>240</v>
       </c>
       <c r="B241">
-        <v>-1.3619281254624327</v>
+        <v>-1.3628753765535986</v>
       </c>
     </row>
     <row r="242">
@@ -2026,7 +2006,7 @@
         <v>241</v>
       </c>
       <c r="B242">
-        <v>-1.1099501047726568</v>
+        <v>-1.1104007786371011</v>
       </c>
     </row>
     <row r="243">
@@ -2034,7 +2014,7 @@
         <v>242</v>
       </c>
       <c r="B243">
-        <v>-1.3480018445286699</v>
+        <v>-1.35469929427552</v>
       </c>
     </row>
     <row r="244">
@@ -2042,7 +2022,7 @@
         <v>243</v>
       </c>
       <c r="B244">
-        <v>-1.3618160771572874</v>
+        <v>-1.3685284450552695</v>
       </c>
     </row>
     <row r="245">
@@ -2050,7 +2030,7 @@
         <v>244</v>
       </c>
       <c r="B245">
-        <v>-1.5937830174831147</v>
+        <v>-1.5981278547348576</v>
       </c>
     </row>
     <row r="246">
@@ -2058,7 +2038,7 @@
         <v>245</v>
       </c>
       <c r="B246">
-        <v>-1.595328844655783</v>
+        <v>-1.5979738384450535</v>
       </c>
     </row>
     <row r="247">
@@ -2066,7 +2046,7 @@
         <v>246</v>
       </c>
       <c r="B247">
-        <v>-1.4962960483688943</v>
+        <v>-1.4978191282410296</v>
       </c>
     </row>
     <row r="248">
@@ -2074,7 +2054,7 @@
         <v>247</v>
       </c>
       <c r="B248">
-        <v>-1.3257141510598121</v>
+        <v>-1.3266404757137586</v>
       </c>
     </row>
     <row r="249">
@@ -2082,7 +2062,7 @@
         <v>248</v>
       </c>
       <c r="B249">
-        <v>-1.4520906528667845</v>
+        <v>-1.4552608098879594</v>
       </c>
     </row>
     <row r="250">
@@ -2090,7 +2070,7 @@
         <v>249</v>
       </c>
       <c r="B250">
-        <v>-1.3630811746132081</v>
+        <v>-1.365072290428222</v>
       </c>
     </row>
     <row r="251">
@@ -2098,7 +2078,7 @@
         <v>250</v>
       </c>
       <c r="B251">
-        <v>1.8168818285899297</v>
+        <v>1.819116601671168</v>
       </c>
     </row>
     <row r="252">
@@ -2106,7 +2086,7 @@
         <v>251</v>
       </c>
       <c r="B252">
-        <v>2.1117823928876276</v>
+        <v>2.1147084624726737</v>
       </c>
     </row>
     <row r="253">
@@ -2114,7 +2094,7 @@
         <v>252</v>
       </c>
       <c r="B253">
-        <v>1.920671077681908</v>
+        <v>1.9248239798567282</v>
       </c>
     </row>
     <row r="254">
@@ -2122,7 +2102,7 @@
         <v>253</v>
       </c>
       <c r="B254">
-        <v>2.3233990855867779</v>
+        <v>2.3223146438223692</v>
       </c>
     </row>
     <row r="255">
@@ -2130,7 +2110,7 @@
         <v>254</v>
       </c>
       <c r="B255">
-        <v>2.344165385155462</v>
+        <v>2.3441438359228699</v>
       </c>
     </row>
     <row r="256">
@@ -2138,7 +2118,7 @@
         <v>255</v>
       </c>
       <c r="B256">
-        <v>2.3477991950077479</v>
+        <v>2.3480368544237553</v>
       </c>
     </row>
     <row r="257">
@@ -2146,7 +2126,7 @@
         <v>256</v>
       </c>
       <c r="B257">
-        <v>2.2909054630626384</v>
+        <v>2.2928928118102632</v>
       </c>
     </row>
     <row r="258">
@@ -2154,7 +2134,7 @@
         <v>257</v>
       </c>
       <c r="B258">
-        <v>2.1254752126683822</v>
+        <v>2.1270982646402019</v>
       </c>
     </row>
     <row r="259">
@@ -2162,7 +2142,7 @@
         <v>258</v>
       </c>
       <c r="B259">
-        <v>1.7676646074200695</v>
+        <v>1.769316829361566</v>
       </c>
     </row>
     <row r="260">
@@ -2170,7 +2150,7 @@
         <v>259</v>
       </c>
       <c r="B260">
-        <v>2.1548677262096829</v>
+        <v>2.1520427858763953</v>
       </c>
     </row>
     <row r="261">
@@ -2178,7 +2158,7 @@
         <v>260</v>
       </c>
       <c r="B261">
-        <v>2.285982889631454</v>
+        <v>2.2847470058851189</v>
       </c>
     </row>
     <row r="262">
@@ -2186,7 +2166,7 @@
         <v>261</v>
       </c>
       <c r="B262">
-        <v>2.3165040852405698</v>
+        <v>2.315800650317688</v>
       </c>
     </row>
     <row r="263">
@@ -2194,7 +2174,7 @@
         <v>262</v>
       </c>
       <c r="B263">
-        <v>2.3125793283034062</v>
+        <v>2.3130539075056893</v>
       </c>
     </row>
     <row r="264">
@@ -2202,7 +2182,7 @@
         <v>263</v>
       </c>
       <c r="B264">
-        <v>2.2607969689479392</v>
+        <v>2.2611705216717741</v>
       </c>
     </row>
     <row r="265">
@@ -2210,7 +2190,7 @@
         <v>264</v>
       </c>
       <c r="B265">
-        <v>2.0453928180232639</v>
+        <v>2.0462218770048866</v>
       </c>
     </row>
     <row r="266">
@@ -2218,7 +2198,7 @@
         <v>265</v>
       </c>
       <c r="B266">
-        <v>1.6187811379755845</v>
+        <v>1.6203402467139674</v>
       </c>
     </row>
     <row r="267">
@@ -2226,7 +2206,7 @@
         <v>266</v>
       </c>
       <c r="B267">
-        <v>1.8197148488738897</v>
+        <v>1.8168444707524132</v>
       </c>
     </row>
     <row r="268">
@@ -2234,7 +2214,7 @@
         <v>267</v>
       </c>
       <c r="B268">
-        <v>1.8704297506311391</v>
+        <v>1.8675763045651501</v>
       </c>
     </row>
     <row r="269">
@@ -2242,7 +2222,7 @@
         <v>268</v>
       </c>
       <c r="B269">
-        <v>1.9308977315842277</v>
+        <v>1.9281563981308674</v>
       </c>
     </row>
     <row r="270">
@@ -2250,7 +2230,7 @@
         <v>269</v>
       </c>
       <c r="B270">
-        <v>1.9949550949847017</v>
+        <v>1.9936250369697082</v>
       </c>
     </row>
     <row r="271">
@@ -2258,7 +2238,7 @@
         <v>270</v>
       </c>
       <c r="B271">
-        <v>2.0100163773953255</v>
+        <v>2.0097370726282429</v>
       </c>
     </row>
     <row r="272">
@@ -2266,7 +2246,7 @@
         <v>271</v>
       </c>
       <c r="B272">
-        <v>1.9521088195551277</v>
+        <v>1.9517590145906398</v>
       </c>
     </row>
     <row r="273">
@@ -2274,7 +2254,7 @@
         <v>272</v>
       </c>
       <c r="B273">
-        <v>1.8442374754884092</v>
+        <v>1.8447476868964674</v>
       </c>
     </row>
     <row r="274">
@@ -2282,7 +2262,7 @@
         <v>273</v>
       </c>
       <c r="B274">
-        <v>1.6126242939931945</v>
+        <v>1.6136087666992145</v>
       </c>
     </row>
     <row r="275">
@@ -2290,7 +2270,7 @@
         <v>274</v>
       </c>
       <c r="B275">
-        <v>1.2126695059012411</v>
+        <v>1.2134807389019329</v>
       </c>
     </row>
     <row r="276">
@@ -2298,7 +2278,7 @@
         <v>275</v>
       </c>
       <c r="B276">
-        <v>1.1153932913587254</v>
+        <v>1.1127632824454414</v>
       </c>
     </row>
     <row r="277">
@@ -2306,7 +2286,7 @@
         <v>276</v>
       </c>
       <c r="B277">
-        <v>1.1234762591342398</v>
+        <v>1.1206582209987896</v>
       </c>
     </row>
     <row r="278">
@@ -2314,7 +2294,7 @@
         <v>277</v>
       </c>
       <c r="B278">
-        <v>1.1238255153811674</v>
+        <v>1.1215651919034355</v>
       </c>
     </row>
     <row r="279">
@@ -2322,7 +2302,7 @@
         <v>278</v>
       </c>
       <c r="B279">
-        <v>1.1783396508943786</v>
+        <v>1.1761024094577393</v>
       </c>
     </row>
     <row r="280">
@@ -2330,7 +2310,7 @@
         <v>279</v>
       </c>
       <c r="B280">
-        <v>1.3198234928647252</v>
+        <v>1.3191491439116498</v>
       </c>
     </row>
     <row r="281">
@@ -2338,7 +2318,7 @@
         <v>280</v>
       </c>
       <c r="B281">
-        <v>1.422367781070478</v>
+        <v>1.4221283501083959</v>
       </c>
     </row>
     <row r="282">
@@ -2346,7 +2326,7 @@
         <v>281</v>
       </c>
       <c r="B282">
-        <v>1.3899565348652287</v>
+        <v>1.3890856164133427</v>
       </c>
     </row>
     <row r="283">
@@ -2354,7 +2334,7 @@
         <v>282</v>
       </c>
       <c r="B283">
-        <v>1.2315212510215385</v>
+        <v>1.230695038099499</v>
       </c>
     </row>
     <row r="284">
@@ -2362,7 +2342,7 @@
         <v>283</v>
       </c>
       <c r="B284">
-        <v>1.016649548645211</v>
+        <v>1.0160780691348741</v>
       </c>
     </row>
     <row r="285">
@@ -2370,7 +2350,7 @@
         <v>284</v>
       </c>
       <c r="B285">
-        <v>0.79396138763331603</v>
+        <v>0.79294475652657537</v>
       </c>
     </row>
     <row r="286">
@@ -2378,7 +2358,7 @@
         <v>285</v>
       </c>
       <c r="B286">
-        <v>0.31441377393983877</v>
+        <v>0.31207316204803975</v>
       </c>
     </row>
     <row r="287">
@@ -2386,7 +2366,7 @@
         <v>286</v>
       </c>
       <c r="B287">
-        <v>0.28443448289426132</v>
+        <v>0.28191613876550942</v>
       </c>
     </row>
     <row r="288">
@@ -2394,7 +2374,7 @@
         <v>287</v>
       </c>
       <c r="B288">
-        <v>0.29293659545900624</v>
+        <v>0.29057055505931262</v>
       </c>
     </row>
     <row r="289">
@@ -2402,7 +2382,7 @@
         <v>288</v>
       </c>
       <c r="B289">
-        <v>0.35962486266060451</v>
+        <v>0.35840948832075342</v>
       </c>
     </row>
     <row r="290">
@@ -2410,7 +2390,7 @@
         <v>289</v>
       </c>
       <c r="B290">
-        <v>0.45098835724992276</v>
+        <v>0.450325854128933</v>
       </c>
     </row>
     <row r="291">
@@ -2418,7 +2398,7 @@
         <v>290</v>
       </c>
       <c r="B291">
-        <v>0.63380755839650504</v>
+        <v>0.63355669873858644</v>
       </c>
     </row>
     <row r="292">
@@ -2426,7 +2406,7 @@
         <v>291</v>
       </c>
       <c r="B292">
-        <v>0.68385364647581914</v>
+        <v>0.68254434367228523</v>
       </c>
     </row>
     <row r="293">
@@ -2434,7 +2414,7 @@
         <v>292</v>
       </c>
       <c r="B293">
-        <v>0.6528395237769048</v>
+        <v>0.65059870525450059</v>
       </c>
     </row>
     <row r="294">
@@ -2442,7 +2422,7 @@
         <v>293</v>
       </c>
       <c r="B294">
-        <v>0.57743530720431191</v>
+        <v>0.57485754165682867</v>
       </c>
     </row>
     <row r="295">
@@ -2450,7 +2430,7 @@
         <v>294</v>
       </c>
       <c r="B295">
-        <v>0.4891376297235861</v>
+        <v>0.48676628120863585</v>
       </c>
     </row>
     <row r="296">
@@ -2458,7 +2438,7 @@
         <v>295</v>
       </c>
       <c r="B296">
-        <v>0.36104946733847348</v>
+        <v>0.35889621335688482</v>
       </c>
     </row>
     <row r="297">
@@ -2466,7 +2446,7 @@
         <v>296</v>
       </c>
       <c r="B297">
-        <v>-0.21074496790371705</v>
+        <v>-0.21235746885605611</v>
       </c>
     </row>
     <row r="298">
@@ -2474,7 +2454,7 @@
         <v>297</v>
       </c>
       <c r="B298">
-        <v>-0.23063359053931826</v>
+        <v>-0.23201158276112369</v>
       </c>
     </row>
     <row r="299">
@@ -2482,7 +2462,7 @@
         <v>298</v>
       </c>
       <c r="B299">
-        <v>-0.23841281426830799</v>
+        <v>-0.23923090061315469</v>
       </c>
     </row>
     <row r="300">
@@ -2490,7 +2470,7 @@
         <v>299</v>
       </c>
       <c r="B300">
-        <v>-0.23246777157518453</v>
+        <v>-0.23189297363563521</v>
       </c>
     </row>
     <row r="301">
@@ -2498,7 +2478,7 @@
         <v>300</v>
       </c>
       <c r="B301">
-        <v>-0.20483855646201937</v>
+        <v>-0.20493020936092612</v>
       </c>
     </row>
     <row r="302">
@@ -2506,7 +2486,7 @@
         <v>301</v>
       </c>
       <c r="B302">
-        <v>-0.16535697234889588</v>
+        <v>-0.16540484217501925</v>
       </c>
     </row>
     <row r="303">
@@ -2514,7 +2494,7 @@
         <v>302</v>
       </c>
       <c r="B303">
-        <v>-0.13794337643161309</v>
+        <v>-0.13960716274621848</v>
       </c>
     </row>
     <row r="304">
@@ -2522,7 +2502,7 @@
         <v>303</v>
       </c>
       <c r="B304">
-        <v>-0.1440875232283827</v>
+        <v>-0.14744683447980181</v>
       </c>
     </row>
     <row r="305">
@@ -2530,7 +2510,7 @@
         <v>304</v>
       </c>
       <c r="B305">
-        <v>-0.065334248655888369</v>
+        <v>-0.068701035917268338</v>
       </c>
     </row>
     <row r="306">
@@ -2538,7 +2518,7 @@
         <v>305</v>
       </c>
       <c r="B306">
-        <v>0.022880326906008868</v>
+        <v>0.019246605849758389</v>
       </c>
     </row>
     <row r="307">
@@ -2546,7 +2526,7 @@
         <v>306</v>
       </c>
       <c r="B307">
-        <v>0.038398269086059041</v>
+        <v>0.035052987744481089</v>
       </c>
     </row>
     <row r="308">
@@ -2554,7 +2534,7 @@
         <v>307</v>
       </c>
       <c r="B308">
-        <v>-0.52803876444527076</v>
+        <v>-0.53048183762990619</v>
       </c>
     </row>
     <row r="309">
@@ -2562,7 +2542,7 @@
         <v>308</v>
       </c>
       <c r="B309">
-        <v>-0.55341296342577073</v>
+        <v>-0.55484801479374757</v>
       </c>
     </row>
     <row r="310">
@@ -2570,7 +2550,7 @@
         <v>309</v>
       </c>
       <c r="B310">
-        <v>-0.59538686025410426</v>
+        <v>-0.59540364037593696</v>
       </c>
     </row>
     <row r="311">
@@ -2578,7 +2558,7 @@
         <v>310</v>
       </c>
       <c r="B311">
-        <v>-0.63421240682355429</v>
+        <v>-0.63332822088032237</v>
       </c>
     </row>
     <row r="312">
@@ -2586,7 +2566,7 @@
         <v>311</v>
       </c>
       <c r="B312">
-        <v>-0.68173985181470442</v>
+        <v>-0.68168381375274567</v>
       </c>
     </row>
     <row r="313">
@@ -2594,7 +2574,7 @@
         <v>312</v>
       </c>
       <c r="B313">
-        <v>-0.70190255636694387</v>
+        <v>-0.70186775866954809</v>
       </c>
     </row>
     <row r="314">
@@ -2602,7 +2582,7 @@
         <v>313</v>
       </c>
       <c r="B314">
-        <v>-0.74392366477463967</v>
+        <v>-0.74515517463809688</v>
       </c>
     </row>
     <row r="315">
@@ -2610,7 +2590,7 @@
         <v>314</v>
       </c>
       <c r="B315">
-        <v>-0.72841201054117688</v>
+        <v>-0.73081938355582265</v>
       </c>
     </row>
     <row r="316">
@@ -2618,7 +2598,7 @@
         <v>315</v>
       </c>
       <c r="B316">
-        <v>-0.64952775693231657</v>
+        <v>-0.6527482011696949</v>
       </c>
     </row>
     <row r="317">
@@ -2626,7 +2606,7 @@
         <v>316</v>
       </c>
       <c r="B317">
-        <v>-0.49250244007608512</v>
+        <v>-0.49584204480965816</v>
       </c>
     </row>
     <row r="318">
@@ -2634,7 +2614,7 @@
         <v>317</v>
       </c>
       <c r="B318">
-        <v>-0.37960933123345314</v>
+        <v>-0.38288704794759648</v>
       </c>
     </row>
     <row r="319">
@@ -2642,7 +2622,7 @@
         <v>318</v>
       </c>
       <c r="B319">
-        <v>-0.39624988298212011</v>
+        <v>-0.39903537928078453</v>
       </c>
     </row>
     <row r="320">
@@ -2650,7 +2630,7 @@
         <v>319</v>
       </c>
       <c r="B320">
-        <v>-0.57134637630565444</v>
+        <v>-0.5737649546987279</v>
       </c>
     </row>
     <row r="321">
@@ -2658,7 +2638,7 @@
         <v>320</v>
       </c>
       <c r="B321">
-        <v>-0.58912386246413984</v>
+        <v>-0.59054324208003384</v>
       </c>
     </row>
     <row r="322">
@@ -2666,7 +2646,7 @@
         <v>321</v>
       </c>
       <c r="B322">
-        <v>-0.63639023590441612</v>
+        <v>-0.63641529901118365</v>
       </c>
     </row>
     <row r="323">
@@ -2674,7 +2654,7 @@
         <v>322</v>
       </c>
       <c r="B323">
-        <v>-0.69121375745431934</v>
+        <v>-0.69040622565004672</v>
       </c>
     </row>
     <row r="324">
@@ -2682,7 +2662,7 @@
         <v>323</v>
       </c>
       <c r="B324">
-        <v>-0.76285678732626527</v>
+        <v>-0.76292323085147673</v>
       </c>
     </row>
     <row r="325">
@@ -2690,7 +2670,7 @@
         <v>324</v>
       </c>
       <c r="B325">
-        <v>-0.77288489459417131</v>
+        <v>-0.77293519729110038</v>
       </c>
     </row>
     <row r="326">
@@ -2698,7 +2678,7 @@
         <v>325</v>
       </c>
       <c r="B326">
-        <v>-0.80919768551714677</v>
+        <v>-0.81046546907890782</v>
       </c>
     </row>
     <row r="327">
@@ -2706,7 +2686,7 @@
         <v>326</v>
       </c>
       <c r="B327">
-        <v>-0.81102128948457608</v>
+        <v>-0.81346195056918535</v>
       </c>
     </row>
     <row r="328">
@@ -2714,7 +2694,7 @@
         <v>327</v>
       </c>
       <c r="B328">
-        <v>-0.76783662604892822</v>
+        <v>-0.77115013388433906</v>
       </c>
     </row>
     <row r="329">
@@ -2722,7 +2702,7 @@
         <v>328</v>
       </c>
       <c r="B329">
-        <v>-0.62919290736317512</v>
+        <v>-0.63270928915858227</v>
       </c>
     </row>
     <row r="330">
@@ -2730,7 +2710,7 @@
         <v>329</v>
       </c>
       <c r="B330">
-        <v>-0.49983266413112815</v>
+        <v>-0.50333424111395275</v>
       </c>
     </row>
     <row r="331">
@@ -2738,7 +2718,7 @@
         <v>330</v>
       </c>
       <c r="B331">
-        <v>-0.45734444416033221</v>
+        <v>-0.46029918953750226</v>
       </c>
     </row>
     <row r="332">
@@ -2746,7 +2726,7 @@
         <v>331</v>
       </c>
       <c r="B332">
-        <v>-0.79713551556994455</v>
+        <v>-0.79971213258633755</v>
       </c>
     </row>
     <row r="333">
@@ -2754,7 +2734,7 @@
         <v>332</v>
       </c>
       <c r="B333">
-        <v>-0.89030072180056652</v>
+        <v>-0.89166046327384774</v>
       </c>
     </row>
     <row r="334">
@@ -2762,7 +2742,7 @@
         <v>333</v>
       </c>
       <c r="B334">
-        <v>-1.0025430235708395</v>
+        <v>-1.0028101165009737</v>
       </c>
     </row>
     <row r="335">
@@ -2770,7 +2750,7 @@
         <v>334</v>
       </c>
       <c r="B335">
-        <v>-1.0995210473370394</v>
+        <v>-1.0996263836037758</v>
       </c>
     </row>
     <row r="336">
@@ -2778,7 +2758,7 @@
         <v>335</v>
       </c>
       <c r="B336">
-        <v>-1.1072947056636981</v>
+        <v>-1.1073908157502637</v>
       </c>
     </row>
     <row r="337">
@@ -2786,7 +2766,7 @@
         <v>336</v>
       </c>
       <c r="B337">
-        <v>-1.1706164878404315</v>
+        <v>-1.1712707963560278</v>
       </c>
     </row>
     <row r="338">
@@ -2794,7 +2774,7 @@
         <v>337</v>
       </c>
       <c r="B338">
-        <v>-1.1569748044951349</v>
+        <v>-1.1588202033575443</v>
       </c>
     </row>
     <row r="339">
@@ -2802,7 +2782,7 @@
         <v>338</v>
       </c>
       <c r="B339">
-        <v>-1.0879267943827553</v>
+        <v>-1.0901774583653079</v>
       </c>
     </row>
     <row r="340">
@@ -2810,7 +2790,7 @@
         <v>339</v>
       </c>
       <c r="B340">
-        <v>-0.94205343084804649</v>
+        <v>-0.94437742264278879</v>
       </c>
     </row>
     <row r="341">
@@ -2818,7 +2798,7 @@
         <v>340</v>
       </c>
       <c r="B341">
-        <v>-0.80240407313181406</v>
+        <v>-0.80414930311297161</v>
       </c>
     </row>
     <row r="342">
@@ -2826,7 +2806,7 @@
         <v>341</v>
       </c>
       <c r="B342">
-        <v>-0.67734539886714862</v>
+        <v>-0.6788152764324662</v>
       </c>
     </row>
     <row r="343">
@@ -2834,7 +2814,7 @@
         <v>342</v>
       </c>
       <c r="B343">
-        <v>-0.87089686969523217</v>
+        <v>-0.87470674745674504</v>
       </c>
     </row>
     <row r="344">
@@ -2842,7 +2822,7 @@
         <v>343</v>
       </c>
       <c r="B344">
-        <v>-1.0297833003046983</v>
+        <v>-1.0323545886192587</v>
       </c>
     </row>
     <row r="345">
@@ -2850,7 +2830,7 @@
         <v>344</v>
       </c>
       <c r="B345">
-        <v>-1.1565686332674703</v>
+        <v>-1.1580576293037848</v>
       </c>
     </row>
     <row r="346">
@@ -2858,7 +2838,7 @@
         <v>345</v>
       </c>
       <c r="B346">
-        <v>-1.3038633856423754</v>
+        <v>-1.3047958204957077</v>
       </c>
     </row>
     <row r="347">
@@ -2866,7 +2846,7 @@
         <v>346</v>
       </c>
       <c r="B347">
-        <v>-1.3109916263602683</v>
+        <v>-1.3119262473856803</v>
       </c>
     </row>
     <row r="348">
@@ -2874,7 +2854,7 @@
         <v>347</v>
       </c>
       <c r="B348">
-        <v>-1.3999720868900103</v>
+        <v>-1.4005275716367347</v>
       </c>
     </row>
     <row r="349">
@@ -2882,7 +2862,7 @@
         <v>348</v>
       </c>
       <c r="B349">
-        <v>-1.424897953347789</v>
+        <v>-1.4255467195142604</v>
       </c>
     </row>
     <row r="350">
@@ -2890,7 +2870,7 @@
         <v>349</v>
       </c>
       <c r="B350">
-        <v>-1.3232143725859824</v>
+        <v>-1.3244929106504406</v>
       </c>
     </row>
     <row r="351">
@@ -2898,7 +2878,7 @@
         <v>350</v>
       </c>
       <c r="B351">
-        <v>-1.143322589103309</v>
+        <v>-1.1445656620503459</v>
       </c>
     </row>
     <row r="352">
@@ -2906,7 +2886,7 @@
         <v>351</v>
       </c>
       <c r="B352">
-        <v>-0.95707852549806649</v>
+        <v>-0.95792113413283275</v>
       </c>
     </row>
     <row r="353">
@@ -2914,7 +2894,7 @@
         <v>352</v>
       </c>
       <c r="B353">
-        <v>-0.78322696285709303</v>
+        <v>-0.78425198856486966</v>
       </c>
     </row>
     <row r="354">
@@ -2922,7 +2902,7 @@
         <v>353</v>
       </c>
       <c r="B354">
-        <v>-0.8078112517344529</v>
+        <v>-0.8126512889344073</v>
       </c>
     </row>
     <row r="355">
@@ -2930,7 +2910,7 @@
         <v>354</v>
       </c>
       <c r="B355">
-        <v>-0.99635163894671885</v>
+        <v>-1.0006187120180614</v>
       </c>
     </row>
     <row r="356">
@@ -2938,7 +2918,7 @@
         <v>355</v>
       </c>
       <c r="B356">
-        <v>-1.1928742987086223</v>
+        <v>-1.196043113643126</v>
       </c>
     </row>
     <row r="357">
@@ -2946,7 +2926,7 @@
         <v>356</v>
       </c>
       <c r="B357">
-        <v>-1.3395314693950577</v>
+        <v>-1.3416072421585543</v>
       </c>
     </row>
     <row r="358">
@@ -2954,7 +2934,7 @@
         <v>357</v>
       </c>
       <c r="B358">
-        <v>-1.3526613821794109</v>
+        <v>-1.3547324610068181</v>
       </c>
     </row>
     <row r="359">
@@ -2962,7 +2942,7 @@
         <v>358</v>
       </c>
       <c r="B359">
-        <v>-1.4901896112232542</v>
+        <v>-1.4913755406190077</v>
       </c>
     </row>
     <row r="360">
@@ -2970,7 +2950,7 @@
         <v>359</v>
       </c>
       <c r="B360">
-        <v>-1.5219364925148746</v>
+        <v>-1.5223226589070982</v>
       </c>
     </row>
     <row r="361">
@@ -2978,7 +2958,7 @@
         <v>360</v>
       </c>
       <c r="B361">
-        <v>-1.455164636814416</v>
+        <v>-1.4544923743544107</v>
       </c>
     </row>
     <row r="362">
@@ -2986,7 +2966,7 @@
         <v>361</v>
       </c>
       <c r="B362">
-        <v>-1.2450020749877007</v>
+        <v>-1.2445954332945408</v>
       </c>
     </row>
     <row r="363">
@@ -2994,7 +2974,7 @@
         <v>362</v>
       </c>
       <c r="B363">
-        <v>-0.98721503181337966</v>
+        <v>-0.98717696569453006</v>
       </c>
     </row>
     <row r="364">
@@ -3002,7 +2982,7 @@
         <v>363</v>
       </c>
       <c r="B364">
-        <v>-0.7981568197907063</v>
+        <v>-0.798311073428426</v>
       </c>
     </row>
     <row r="365">
@@ -3010,7 +2990,7 @@
         <v>364</v>
       </c>
       <c r="B365">
-        <v>-0.82277220628971082</v>
+        <v>-0.82924457126075057</v>
       </c>
     </row>
     <row r="366">
@@ -3018,7 +2998,7 @@
         <v>365</v>
       </c>
       <c r="B366">
-        <v>-1.0666417978469904</v>
+        <v>-1.0713057747374577</v>
       </c>
     </row>
     <row r="367">
@@ -3026,7 +3006,7 @@
         <v>366</v>
       </c>
       <c r="B367">
-        <v>-1.3010837536654838</v>
+        <v>-1.303841226082828</v>
       </c>
     </row>
     <row r="368">
@@ -3034,7 +3014,7 @@
         <v>367</v>
       </c>
       <c r="B368">
-        <v>-1.3039045457333731</v>
+        <v>-1.3066208462218554</v>
       </c>
     </row>
     <row r="369">
@@ -3042,7 +3022,7 @@
         <v>368</v>
       </c>
       <c r="B369">
-        <v>-1.4873591226673097</v>
+        <v>-1.4882636529294939</v>
       </c>
     </row>
     <row r="370">
@@ -3050,7 +3030,7 @@
         <v>369</v>
       </c>
       <c r="B370">
-        <v>-1.5022058525531401</v>
+        <v>-1.5016997990494971</v>
       </c>
     </row>
     <row r="371">
@@ -3058,7 +3038,7 @@
         <v>370</v>
       </c>
       <c r="B371">
-        <v>-1.3748846702279451</v>
+        <v>-1.3738917856384838</v>
       </c>
     </row>
     <row r="372">
@@ -3066,7 +3046,7 @@
         <v>371</v>
       </c>
       <c r="B372">
-        <v>-1.2109972607589352</v>
+        <v>-1.2099815964131142</v>
       </c>
     </row>
     <row r="373">
@@ -3074,7 +3054,7 @@
         <v>372</v>
       </c>
       <c r="B373">
-        <v>-0.95936016206237906</v>
+        <v>-0.95866498871217343</v>
       </c>
     </row>
     <row r="374">
@@ -3082,7 +3062,7 @@
         <v>373</v>
       </c>
       <c r="B374">
-        <v>-0.91368483123502575</v>
+        <v>-0.91951743086778459</v>
       </c>
     </row>
     <row r="375">
@@ -3090,7 +3070,7 @@
         <v>374</v>
       </c>
       <c r="B375">
-        <v>-1.1883429806892287</v>
+        <v>-1.191956669467392</v>
       </c>
     </row>
     <row r="376">
@@ -3098,7 +3078,7 @@
         <v>375</v>
       </c>
       <c r="B376">
-        <v>-1.1902506709211929</v>
+        <v>-1.1938155271759512</v>
       </c>
     </row>
     <row r="377">
@@ -3106,7 +3086,7 @@
         <v>376</v>
       </c>
       <c r="B377">
-        <v>-1.394851955600219</v>
+        <v>-1.395594011996383</v>
       </c>
     </row>
     <row r="378">
@@ -3114,7 +3094,7 @@
         <v>377</v>
       </c>
       <c r="B378">
-        <v>-1.4334844599925625</v>
+        <v>-1.432496922849781</v>
       </c>
     </row>
     <row r="379">
@@ -3122,7 +3102,7 @@
         <v>378</v>
       </c>
       <c r="B379">
-        <v>-1.3242132217897589</v>
+        <v>-1.3228519791560474</v>
       </c>
     </row>
     <row r="380">
@@ -3130,7 +3110,7 @@
         <v>379</v>
       </c>
       <c r="B380">
-        <v>-1.0854389277385812</v>
+        <v>-1.0845019757001566</v>
       </c>
     </row>
     <row r="381">
@@ -3138,7 +3118,7 @@
         <v>380</v>
       </c>
       <c r="B381">
-        <v>-0.81772083982160126</v>
+        <v>-0.81671053948001715</v>
       </c>
     </row>
     <row r="382">
@@ -3146,7 +3126,7 @@
         <v>381</v>
       </c>
       <c r="B382">
-        <v>-1.0814009019447763</v>
+        <v>-1.085296639835023</v>
       </c>
     </row>
     <row r="383">
@@ -3154,7 +3134,7 @@
         <v>382</v>
       </c>
       <c r="B383">
-        <v>-1.0939755044072446</v>
+        <v>-1.0978612353791737</v>
       </c>
     </row>
     <row r="384">
@@ -3162,7 +3142,7 @@
         <v>383</v>
       </c>
       <c r="B384">
-        <v>-1.335038167877789</v>
+        <v>-1.3364698977493403</v>
       </c>
     </row>
     <row r="385">
@@ -3170,7 +3150,7 @@
         <v>384</v>
       </c>
       <c r="B385">
-        <v>-1.3560994249051648</v>
+        <v>-1.3558751900576149</v>
       </c>
     </row>
     <row r="386">
@@ -3178,7 +3158,7 @@
         <v>385</v>
       </c>
       <c r="B386">
-        <v>-1.2246838653820542</v>
+        <v>-1.2236249022497192</v>
       </c>
     </row>
     <row r="387">
@@ -3186,7 +3166,7 @@
         <v>386</v>
       </c>
       <c r="B387">
-        <v>-0.93643305727988357</v>
+        <v>-0.93464935875289501</v>
       </c>
     </row>
     <row r="388">
@@ -3194,7 +3174,7 @@
         <v>387</v>
       </c>
       <c r="B388">
-        <v>-1.0987269134054507</v>
+        <v>-1.1030631739865746</v>
       </c>
     </row>
     <row r="389">
@@ -3202,7 +3182,7 @@
         <v>388</v>
       </c>
       <c r="B389">
-        <v>2.4346613539770861</v>
+        <v>2.4325831402311424</v>
       </c>
     </row>
     <row r="390">
@@ -3210,7 +3190,7 @@
         <v>389</v>
       </c>
       <c r="B390">
-        <v>2.3427489640264332</v>
+        <v>2.3410145262424136</v>
       </c>
     </row>
     <row r="391">
@@ -3218,7 +3198,7 @@
         <v>390</v>
       </c>
       <c r="B391">
-        <v>2.2873165249654162</v>
+        <v>2.2872320562961579</v>
       </c>
     </row>
     <row r="392">
@@ -3226,7 +3206,7 @@
         <v>391</v>
       </c>
       <c r="B392">
-        <v>2.113788836006226</v>
+        <v>2.1133310623818478</v>
       </c>
     </row>
     <row r="393">
@@ -3234,7 +3214,7 @@
         <v>392</v>
       </c>
       <c r="B393">
-        <v>2.2749546447765434</v>
+        <v>2.2704827025225014</v>
       </c>
     </row>
     <row r="394">
@@ -3242,7 +3222,7 @@
         <v>393</v>
       </c>
       <c r="B394">
-        <v>2.3805866241163565</v>
+        <v>2.3769268851226095</v>
       </c>
     </row>
     <row r="395">
@@ -3250,7 +3230,7 @@
         <v>394</v>
       </c>
       <c r="B395">
-        <v>2.3631093066668596</v>
+        <v>2.3604185545834682</v>
       </c>
     </row>
     <row r="396">
@@ -3258,7 +3238,7 @@
         <v>395</v>
       </c>
       <c r="B396">
-        <v>2.3954431672344252</v>
+        <v>2.3940593363315887</v>
       </c>
     </row>
     <row r="397">
@@ -3266,7 +3246,7 @@
         <v>396</v>
       </c>
       <c r="B397">
-        <v>2.3330036210390239</v>
+        <v>2.3315496905854678</v>
       </c>
     </row>
     <row r="398">
@@ -3274,7 +3254,7 @@
         <v>397</v>
       </c>
       <c r="B398">
-        <v>2.0417843354624416</v>
+        <v>2.0417004840186355</v>
       </c>
     </row>
     <row r="399">
@@ -3282,7 +3262,7 @@
         <v>398</v>
       </c>
       <c r="B399">
-        <v>1.641729921774572</v>
+        <v>1.6421053787315831</v>
       </c>
     </row>
     <row r="400">
@@ -3290,7 +3270,7 @@
         <v>399</v>
       </c>
       <c r="B400">
-        <v>1.82791000787405</v>
+        <v>1.8222270600747132</v>
       </c>
     </row>
     <row r="401">
@@ -3298,7 +3278,7 @@
         <v>400</v>
       </c>
       <c r="B401">
-        <v>1.9805792471401977</v>
+        <v>1.9750789809742471</v>
       </c>
     </row>
     <row r="402">
@@ -3306,7 +3286,7 @@
         <v>401</v>
       </c>
       <c r="B402">
-        <v>2.1119511373547777</v>
+        <v>2.1075664627926267</v>
       </c>
     </row>
     <row r="403">
@@ -3314,7 +3294,7 @@
         <v>402</v>
       </c>
       <c r="B403">
-        <v>2.148764959844804</v>
+        <v>2.1454668750076942</v>
       </c>
     </row>
     <row r="404">
@@ -3322,7 +3302,7 @@
         <v>403</v>
       </c>
       <c r="B404">
-        <v>2.0858750657760168</v>
+        <v>2.0835370700152609</v>
       </c>
     </row>
     <row r="405">
@@ -3330,7 +3310,7 @@
         <v>404</v>
       </c>
       <c r="B405">
-        <v>2.0972771925102802</v>
+        <v>2.095165907402377</v>
       </c>
     </row>
     <row r="406">
@@ -3338,7 +3318,7 @@
         <v>405</v>
       </c>
       <c r="B406">
-        <v>1.9587845079604049</v>
+        <v>1.958151406117435</v>
       </c>
     </row>
     <row r="407">
@@ -3346,7 +3326,7 @@
         <v>406</v>
       </c>
       <c r="B407">
-        <v>1.6081865453212785</v>
+        <v>1.6082932795484468</v>
       </c>
     </row>
     <row r="408">
@@ -3354,7 +3334,7 @@
         <v>407</v>
       </c>
       <c r="B408">
-        <v>1.1648823674979472</v>
+        <v>1.1647912158939493</v>
       </c>
     </row>
     <row r="409">
@@ -3362,7 +3342,7 @@
         <v>408</v>
       </c>
       <c r="B409">
-        <v>1.1392489047657746</v>
+        <v>1.133432138177173</v>
       </c>
     </row>
     <row r="410">
@@ -3370,7 +3350,7 @@
         <v>409</v>
       </c>
       <c r="B410">
-        <v>1.1826781384315044</v>
+        <v>1.1770089397693686</v>
       </c>
     </row>
     <row r="411">
@@ -3378,7 +3358,7 @@
         <v>410</v>
       </c>
       <c r="B411">
-        <v>1.1997019232767303</v>
+        <v>1.1945017116200325</v>
       </c>
     </row>
     <row r="412">
@@ -3386,7 +3366,7 @@
         <v>411</v>
       </c>
       <c r="B412">
-        <v>1.3218578431512489</v>
+        <v>1.3182409970406865</v>
       </c>
     </row>
     <row r="413">
@@ -3394,7 +3374,7 @@
         <v>412</v>
       </c>
       <c r="B413">
-        <v>1.4859007787609289</v>
+        <v>1.4831907714419608</v>
       </c>
     </row>
     <row r="414">
@@ -3402,7 +3382,7 @@
         <v>413</v>
       </c>
       <c r="B414">
-        <v>1.5157780630878845</v>
+        <v>1.5133589282227886</v>
       </c>
     </row>
     <row r="415">
@@ -3410,7 +3390,7 @@
         <v>414</v>
       </c>
       <c r="B415">
-        <v>1.4502081897687567</v>
+        <v>1.4484991262294378</v>
       </c>
     </row>
     <row r="416">
@@ -3418,7 +3398,7 @@
         <v>415</v>
       </c>
       <c r="B416">
-        <v>1.2501873811513433</v>
+        <v>1.2492025116589021</v>
       </c>
     </row>
     <row r="417">
@@ -3426,7 +3406,7 @@
         <v>416</v>
       </c>
       <c r="B417">
-        <v>0.95689681730182963</v>
+        <v>0.95644201243878924</v>
       </c>
     </row>
     <row r="418">
@@ -3434,7 +3414,7 @@
         <v>417</v>
       </c>
       <c r="B418">
-        <v>0.26204737865385214</v>
+        <v>0.25713738897367511</v>
       </c>
     </row>
     <row r="419">
@@ -3442,7 +3422,7 @@
         <v>418</v>
       </c>
       <c r="B419">
-        <v>0.28284755322041744</v>
+        <v>0.27814345446973221</v>
       </c>
     </row>
     <row r="420">
@@ -3450,7 +3430,7 @@
         <v>419</v>
       </c>
       <c r="B420">
-        <v>0.36970593281520758</v>
+        <v>0.36596881685920535</v>
       </c>
     </row>
     <row r="421">
@@ -3458,7 +3438,7 @@
         <v>420</v>
       </c>
       <c r="B421">
-        <v>0.48587510869040434</v>
+        <v>0.48303051660315793</v>
       </c>
     </row>
     <row r="422">
@@ -3466,7 +3446,7 @@
         <v>421</v>
       </c>
       <c r="B422">
-        <v>0.59472472958673028</v>
+        <v>0.59195218690875417</v>
       </c>
     </row>
     <row r="423">
@@ -3474,7 +3454,7 @@
         <v>422</v>
       </c>
       <c r="B423">
-        <v>0.70380990926448339</v>
+        <v>0.70137893823096131</v>
       </c>
     </row>
     <row r="424">
@@ -3482,7 +3462,7 @@
         <v>423</v>
       </c>
       <c r="B424">
-        <v>0.73322458473364871</v>
+        <v>0.73087418509476343</v>
       </c>
     </row>
     <row r="425">
@@ -3490,7 +3470,7 @@
         <v>424</v>
       </c>
       <c r="B425">
-        <v>0.64181139011331523</v>
+        <v>0.63989421739231955</v>
       </c>
     </row>
     <row r="426">
@@ -3498,7 +3478,7 @@
         <v>425</v>
       </c>
       <c r="B426">
-        <v>0.53800878985168721</v>
+        <v>0.53689409540449906</v>
       </c>
     </row>
     <row r="427">
@@ -3506,7 +3486,7 @@
         <v>426</v>
       </c>
       <c r="B427">
-        <v>0.51202712620265656</v>
+        <v>0.50990618996323567</v>
       </c>
     </row>
     <row r="428">
@@ -3514,7 +3494,7 @@
         <v>427</v>
       </c>
       <c r="B428">
-        <v>-0.20269088096309734</v>
+        <v>-0.20601010625141128</v>
       </c>
     </row>
     <row r="429">
@@ -3522,7 +3502,7 @@
         <v>428</v>
       </c>
       <c r="B429">
-        <v>-0.20916522365470527</v>
+        <v>-0.21153567472083085</v>
       </c>
     </row>
     <row r="430">
@@ -3530,7 +3510,7 @@
         <v>429</v>
       </c>
       <c r="B430">
-        <v>-0.15438633964490645</v>
+        <v>-0.15564483765328732</v>
       </c>
     </row>
     <row r="431">
@@ -3538,7 +3518,7 @@
         <v>430</v>
       </c>
       <c r="B431">
-        <v>-0.11514376114049198</v>
+        <v>-0.11512410933423264</v>
       </c>
     </row>
     <row r="432">
@@ -3546,7 +3526,7 @@
         <v>431</v>
       </c>
       <c r="B432">
-        <v>-0.070121776911516401</v>
+        <v>-0.070337456980598234</v>
       </c>
     </row>
     <row r="433">
@@ -3554,7 +3534,7 @@
         <v>432</v>
       </c>
       <c r="B433">
-        <v>-0.069244410868273126</v>
+        <v>-0.069424336339447154</v>
       </c>
     </row>
     <row r="434">
@@ -3562,7 +3542,7 @@
         <v>433</v>
       </c>
       <c r="B434">
-        <v>-0.047759540007328627</v>
+        <v>-0.048997549954663724</v>
       </c>
     </row>
     <row r="435">
@@ -3570,7 +3550,7 @@
         <v>434</v>
       </c>
       <c r="B435">
-        <v>-0.077761110468703779</v>
+        <v>-0.079646727654192784</v>
       </c>
     </row>
     <row r="436">
@@ -3578,7 +3558,7 @@
         <v>435</v>
       </c>
       <c r="B436">
-        <v>0.0071091790704174204</v>
+        <v>0.0045895568647144076</v>
       </c>
     </row>
     <row r="437">
@@ -3586,7 +3566,7 @@
         <v>436</v>
       </c>
       <c r="B437">
-        <v>0.11183977883647897</v>
+        <v>0.10853974563245077</v>
       </c>
     </row>
     <row r="438">
@@ -3594,7 +3574,7 @@
         <v>437</v>
       </c>
       <c r="B438">
-        <v>0.12306078639901136</v>
+        <v>0.11907116443271074</v>
       </c>
     </row>
     <row r="439">
@@ -3602,7 +3582,7 @@
         <v>438</v>
       </c>
       <c r="B439">
-        <v>-0.49477709907486772</v>
+        <v>-0.49709476759902582</v>
       </c>
     </row>
     <row r="440">
@@ -3610,7 +3590,7 @@
         <v>439</v>
       </c>
       <c r="B440">
-        <v>-0.54122209424813383</v>
+        <v>-0.54232751271959379</v>
       </c>
     </row>
     <row r="441">
@@ -3618,7 +3598,7 @@
         <v>440</v>
       </c>
       <c r="B441">
-        <v>-0.53348811598505086</v>
+        <v>-0.53281263470296159</v>
       </c>
     </row>
     <row r="442">
@@ -3626,7 +3606,7 @@
         <v>441</v>
       </c>
       <c r="B442">
-        <v>-0.5528685323264656</v>
+        <v>-0.55142036561988694</v>
       </c>
     </row>
     <row r="443">
@@ -3634,7 +3614,7 @@
         <v>442</v>
       </c>
       <c r="B443">
-        <v>-0.59084195231235803</v>
+        <v>-0.5892921283482504</v>
       </c>
     </row>
     <row r="444">
@@ -3642,7 +3622,7 @@
         <v>443</v>
       </c>
       <c r="B444">
-        <v>-0.60377281212506573</v>
+        <v>-0.6021755408330568</v>
       </c>
     </row>
     <row r="445">
@@ -3650,7 +3630,7 @@
         <v>444</v>
       </c>
       <c r="B445">
-        <v>-0.64539802188619211</v>
+        <v>-0.64489043538599178</v>
       </c>
     </row>
     <row r="446">
@@ -3658,7 +3638,7 @@
         <v>445</v>
       </c>
       <c r="B446">
-        <v>-0.63950726066347274</v>
+        <v>-0.64041007158416619</v>
       </c>
     </row>
     <row r="447">
@@ -3666,7 +3646,7 @@
         <v>446</v>
       </c>
       <c r="B447">
-        <v>-0.52406851295131518</v>
+        <v>-0.52666815046350668</v>
       </c>
     </row>
     <row r="448">
@@ -3674,7 +3654,7 @@
         <v>447</v>
       </c>
       <c r="B448">
-        <v>-0.31435222637850385</v>
+        <v>-0.31774045977867732</v>
       </c>
     </row>
     <row r="449">
@@ -3682,7 +3662,7 @@
         <v>448</v>
       </c>
       <c r="B449">
-        <v>-0.21872973020682632</v>
+        <v>-0.22243913941794047</v>
       </c>
     </row>
     <row r="450">
@@ -3690,7 +3670,7 @@
         <v>449</v>
       </c>
       <c r="B450">
-        <v>-0.51835450336297761</v>
+        <v>-0.52059491559681892</v>
       </c>
     </row>
     <row r="451">
@@ -3698,7 +3678,7 @@
         <v>450</v>
       </c>
       <c r="B451">
-        <v>-0.58104614585038306</v>
+        <v>-0.58212945398210714</v>
       </c>
     </row>
     <row r="452">
@@ -3706,7 +3686,7 @@
         <v>451</v>
       </c>
       <c r="B452">
-        <v>-0.57147340753759779</v>
+        <v>-0.57079336702638916</v>
       </c>
     </row>
     <row r="453">
@@ -3714,7 +3694,7 @@
         <v>452</v>
       </c>
       <c r="B453">
-        <v>-0.60510829118106868</v>
+        <v>-0.60367869733589286</v>
       </c>
     </row>
     <row r="454">
@@ -3722,7 +3702,7 @@
         <v>453</v>
       </c>
       <c r="B454">
-        <v>-0.65576056592332876</v>
+        <v>-0.65423014666919321</v>
       </c>
     </row>
     <row r="455">
@@ -3730,7 +3710,7 @@
         <v>454</v>
       </c>
       <c r="B455">
-        <v>-0.6650688450311798</v>
+        <v>-0.66344793992408702</v>
       </c>
     </row>
     <row r="456">
@@ -3738,7 +3718,7 @@
         <v>455</v>
       </c>
       <c r="B456">
-        <v>-0.68891317615214986</v>
+        <v>-0.68834858712212643</v>
       </c>
     </row>
     <row r="457">
@@ -3746,7 +3726,7 @@
         <v>456</v>
       </c>
       <c r="B457">
-        <v>-0.71327777872709375</v>
+        <v>-0.7142179622736804</v>
       </c>
     </row>
     <row r="458">
@@ -3754,7 +3734,7 @@
         <v>457</v>
       </c>
       <c r="B458">
-        <v>-0.62879683135751963</v>
+        <v>-0.63151422064019458</v>
       </c>
     </row>
     <row r="459">
@@ -3762,7 +3742,7 @@
         <v>458</v>
       </c>
       <c r="B459">
-        <v>-0.44307229015919508</v>
+        <v>-0.44664560125060765</v>
       </c>
     </row>
     <row r="460">
@@ -3770,7 +3750,7 @@
         <v>459</v>
       </c>
       <c r="B460">
-        <v>-0.31106103201122548</v>
+        <v>-0.3149115546306635</v>
       </c>
     </row>
     <row r="461">
@@ -3778,7 +3758,7 @@
         <v>460</v>
       </c>
       <c r="B461">
-        <v>-0.33230429503117592</v>
+        <v>-0.33581291372451927</v>
       </c>
     </row>
     <row r="462">
@@ -3786,7 +3766,7 @@
         <v>461</v>
       </c>
       <c r="B462">
-        <v>-0.61810369931969922</v>
+        <v>-0.62014058927270854</v>
       </c>
     </row>
     <row r="463">
@@ -3794,7 +3774,7 @@
         <v>462</v>
       </c>
       <c r="B463">
-        <v>-0.71972283444331964</v>
+        <v>-0.72093562309124282</v>
       </c>
     </row>
     <row r="464">
@@ -3802,7 +3782,7 @@
         <v>463</v>
       </c>
       <c r="B464">
-        <v>-0.79738427376246757</v>
+        <v>-0.79688466353991794</v>
       </c>
     </row>
     <row r="465">
@@ -3810,7 +3790,7 @@
         <v>464</v>
       </c>
       <c r="B465">
-        <v>-0.87751138756798874</v>
+        <v>-0.87549771744857952</v>
       </c>
     </row>
     <row r="466">
@@ -3818,7 +3798,7 @@
         <v>465</v>
       </c>
       <c r="B466">
-        <v>-0.96359586302211719</v>
+        <v>-0.96132275877795914</v>
       </c>
     </row>
     <row r="467">
@@ -3826,7 +3806,7 @@
         <v>466</v>
       </c>
       <c r="B467">
-        <v>-0.96696564440358534</v>
+        <v>-0.9646093321040472</v>
       </c>
     </row>
     <row r="468">
@@ -3834,7 +3814,7 @@
         <v>467</v>
       </c>
       <c r="B468">
-        <v>-1.0238473606109983</v>
+        <v>-1.0218033594501876</v>
       </c>
     </row>
     <row r="469">
@@ -3842,7 +3822,7 @@
         <v>468</v>
       </c>
       <c r="B469">
-        <v>-1.0404618834683548</v>
+        <v>-1.0399657366793738</v>
       </c>
     </row>
     <row r="470">
@@ -3850,7 +3830,7 @@
         <v>469</v>
       </c>
       <c r="B470">
-        <v>-0.94188747612250912</v>
+        <v>-0.94291638163102709</v>
       </c>
     </row>
     <row r="471">
@@ -3858,7 +3838,7 @@
         <v>470</v>
       </c>
       <c r="B471">
-        <v>-0.76511699347864048</v>
+        <v>-0.76736612006232208</v>
       </c>
     </row>
     <row r="472">
@@ -3866,7 +3846,7 @@
         <v>471</v>
       </c>
       <c r="B472">
-        <v>-0.61359467728531503</v>
+        <v>-0.61604816909500615</v>
       </c>
     </row>
     <row r="473">
@@ -3874,7 +3854,7 @@
         <v>472</v>
       </c>
       <c r="B473">
-        <v>-0.54967379614354406</v>
+        <v>-0.55203036161350416</v>
       </c>
     </row>
     <row r="474">
@@ -3882,7 +3862,7 @@
         <v>473</v>
       </c>
       <c r="B474">
-        <v>-0.76507465548923881</v>
+        <v>-0.76676711364921224</v>
       </c>
     </row>
     <row r="475">
@@ -3890,7 +3870,7 @@
         <v>474</v>
       </c>
       <c r="B475">
-        <v>-0.89583966211715882</v>
+        <v>-0.89594931013721069</v>
       </c>
     </row>
     <row r="476">
@@ -3898,7 +3878,7 @@
         <v>475</v>
       </c>
       <c r="B476">
-        <v>-0.76501373236364145</v>
+        <v>-0.76277590834578501</v>
       </c>
     </row>
     <row r="477">
@@ -3906,7 +3886,7 @@
         <v>476</v>
       </c>
       <c r="B477">
-        <v>-1.1335054926311987</v>
+        <v>-1.1308223050930255</v>
       </c>
     </row>
     <row r="478">
@@ -3914,7 +3894,7 @@
         <v>477</v>
       </c>
       <c r="B478">
-        <v>-1.1404416020901398</v>
+        <v>-1.1377075214644785</v>
       </c>
     </row>
     <row r="479">
@@ -3922,7 +3902,7 @@
         <v>478</v>
       </c>
       <c r="B479">
-        <v>-1.224862648750136</v>
+        <v>-1.222352397279288</v>
       </c>
     </row>
     <row r="480">
@@ -3930,7 +3910,7 @@
         <v>479</v>
       </c>
       <c r="B480">
-        <v>-1.2416179862369547</v>
+        <v>-1.2397411532914007</v>
       </c>
     </row>
     <row r="481">
@@ -3938,7 +3918,7 @@
         <v>480</v>
       </c>
       <c r="B481">
-        <v>-1.1413161893202173</v>
+        <v>-1.1408720460741575</v>
       </c>
     </row>
     <row r="482">
@@ -3946,7 +3926,7 @@
         <v>481</v>
       </c>
       <c r="B482">
-        <v>-0.9946381889278274</v>
+        <v>-0.9950635685243534</v>
       </c>
     </row>
     <row r="483">
@@ -3954,7 +3934,7 @@
         <v>482</v>
       </c>
       <c r="B483">
-        <v>-0.78561776026548968</v>
+        <v>-0.78677505420488214</v>
       </c>
     </row>
     <row r="484">
@@ -3962,7 +3942,7 @@
         <v>483</v>
       </c>
       <c r="B484">
-        <v>-0.67600960939954891</v>
+        <v>-0.67761887190133874</v>
       </c>
     </row>
     <row r="485">
@@ -3970,7 +3950,7 @@
         <v>484</v>
       </c>
       <c r="B485">
-        <v>-0.66228250289337542</v>
+        <v>-0.66422637575579246</v>
       </c>
     </row>
     <row r="486">
@@ -3978,7 +3958,7 @@
         <v>485</v>
       </c>
       <c r="B486">
-        <v>-0.83014200049755527</v>
+        <v>-0.8309288751889512</v>
       </c>
     </row>
     <row r="487">
@@ -3986,7 +3966,7 @@
         <v>486</v>
       </c>
       <c r="B487">
-        <v>-0.99257854095753117</v>
+        <v>-0.99195750642237634</v>
       </c>
     </row>
     <row r="488">
@@ -3994,7 +3974,7 @@
         <v>487</v>
       </c>
       <c r="B488">
-        <v>-1.1531012466344217</v>
+        <v>-1.1512024408608572</v>
       </c>
     </row>
     <row r="489">
@@ -4002,7 +3982,7 @@
         <v>488</v>
       </c>
       <c r="B489">
-        <v>-1.1616522909142502</v>
+        <v>-1.1597349070614653</v>
       </c>
     </row>
     <row r="490">
@@ -4010,7 +3990,7 @@
         <v>489</v>
       </c>
       <c r="B490">
-        <v>-1.2966667774635448</v>
+        <v>-1.2944177086955084</v>
       </c>
     </row>
     <row r="491">
@@ -4018,7 +3998,7 @@
         <v>490</v>
       </c>
       <c r="B491">
-        <v>-1.3267627598955867</v>
+        <v>-1.3245143172182732</v>
       </c>
     </row>
     <row r="492">
@@ -4026,7 +4006,7 @@
         <v>491</v>
       </c>
       <c r="B492">
-        <v>-1.2561446470980533</v>
+        <v>-1.2538079428445477</v>
       </c>
     </row>
     <row r="493">
@@ -4034,7 +4014,7 @@
         <v>492</v>
       </c>
       <c r="B493">
-        <v>-1.0786940850829188</v>
+        <v>-1.0765242750183972</v>
       </c>
     </row>
     <row r="494">
@@ -4042,7 +4022,7 @@
         <v>493</v>
       </c>
       <c r="B494">
-        <v>-0.85691308902610697</v>
+        <v>-0.85623897949611516</v>
       </c>
     </row>
     <row r="495">
@@ -4050,7 +4030,7 @@
         <v>494</v>
       </c>
       <c r="B495">
-        <v>-0.67363734039901479</v>
+        <v>-0.67399083407131444</v>
       </c>
     </row>
     <row r="496">
@@ -4058,7 +4038,7 @@
         <v>495</v>
       </c>
       <c r="B496">
-        <v>-0.4095624854376429</v>
+        <v>-0.41288594695183511</v>
       </c>
     </row>
     <row r="497">
@@ -4066,7 +4046,7 @@
         <v>496</v>
       </c>
       <c r="B497">
-        <v>-0.60458204589253817</v>
+        <v>-0.60620905357088206</v>
       </c>
     </row>
     <row r="498">
@@ -4074,7 +4054,7 @@
         <v>497</v>
       </c>
       <c r="B498">
-        <v>-0.8351515736762043</v>
+        <v>-0.83575852799871453</v>
       </c>
     </row>
     <row r="499">
@@ -4082,7 +4062,7 @@
         <v>498</v>
       </c>
       <c r="B499">
-        <v>-1.0599193105307472</v>
+        <v>-1.0582852345588905</v>
       </c>
     </row>
     <row r="500">
@@ -4090,7 +4070,7 @@
         <v>499</v>
       </c>
       <c r="B500">
-        <v>-1.0687312007024801</v>
+        <v>-1.0670724456162073</v>
       </c>
     </row>
     <row r="501">
@@ -4098,7 +4078,7 @@
         <v>500</v>
       </c>
       <c r="B501">
-        <v>-1.260547683747544</v>
+        <v>-1.2575463505532876</v>
       </c>
     </row>
     <row r="502">
@@ -4106,7 +4086,7 @@
         <v>501</v>
       </c>
       <c r="B502">
-        <v>-1.3098654582927425</v>
+        <v>-1.3063382878756638</v>
       </c>
     </row>
     <row r="503">
@@ -4114,7 +4094,7 @@
         <v>502</v>
       </c>
       <c r="B503">
-        <v>-1.2332381505366228</v>
+        <v>-1.2299088041166364</v>
       </c>
     </row>
     <row r="504">
@@ -4122,7 +4102,7 @@
         <v>503</v>
       </c>
       <c r="B504">
-        <v>-1.0527110959711206</v>
+        <v>-1.049801583634528</v>
       </c>
     </row>
     <row r="505">
@@ -4130,7 +4110,7 @@
         <v>504</v>
       </c>
       <c r="B505">
-        <v>-0.81588066079747212</v>
+        <v>-0.81386436869860845</v>
       </c>
     </row>
     <row r="506">
@@ -4138,7 +4118,7 @@
         <v>505</v>
       </c>
       <c r="B506">
-        <v>-0.60603177206623704</v>
+        <v>-0.60442766963009609</v>
       </c>
     </row>
     <row r="507">
@@ -4146,7 +4126,7 @@
         <v>506</v>
       </c>
       <c r="B507">
-        <v>-0.43771561766952977</v>
+        <v>-0.44147611963059202</v>
       </c>
     </row>
     <row r="508">
@@ -4154,7 +4134,7 @@
         <v>507</v>
       </c>
       <c r="B508">
-        <v>-0.67743729452520107</v>
+        <v>-0.67847774415378281</v>
       </c>
     </row>
     <row r="509">
@@ -4162,7 +4142,7 @@
         <v>508</v>
       </c>
       <c r="B509">
-        <v>-0.964973402249797</v>
+        <v>-0.96459554245423629</v>
       </c>
     </row>
     <row r="510">
@@ -4170,7 +4150,7 @@
         <v>509</v>
       </c>
       <c r="B510">
-        <v>-0.97110535535246434</v>
+        <v>-0.97073814386545054</v>
       </c>
     </row>
     <row r="511">
@@ -4178,7 +4158,7 @@
         <v>510</v>
       </c>
       <c r="B511">
-        <v>-1.2079872355003289</v>
+        <v>-1.2052180561770143</v>
       </c>
     </row>
     <row r="512">
@@ -4186,7 +4166,7 @@
         <v>511</v>
       </c>
       <c r="B512">
-        <v>-1.2449159499264255</v>
+        <v>-1.2405515546199095</v>
       </c>
     </row>
     <row r="513">
@@ -4194,7 +4174,7 @@
         <v>512</v>
       </c>
       <c r="B513">
-        <v>-1.1514923750577983</v>
+        <v>-1.147234093165626</v>
       </c>
     </row>
     <row r="514">
@@ -4202,7 +4182,7 @@
         <v>513</v>
       </c>
       <c r="B514">
-        <v>-0.94241574148316731</v>
+        <v>-0.93828580328299027</v>
       </c>
     </row>
     <row r="515">
@@ -4210,7 +4190,7 @@
         <v>514</v>
       </c>
       <c r="B515">
-        <v>-0.6878330432613593</v>
+        <v>-0.68562841996649038</v>
       </c>
     </row>
     <row r="516">
@@ -4218,7 +4198,7 @@
         <v>515</v>
       </c>
       <c r="B516">
-        <v>-0.30328829482624498</v>
+        <v>-0.30613947500253713</v>
       </c>
     </row>
     <row r="517">
@@ -4226,7 +4206,7 @@
         <v>516</v>
       </c>
       <c r="B517">
-        <v>-0.49923946036189432</v>
+        <v>-0.50030858487367702</v>
       </c>
     </row>
     <row r="518">
@@ -4234,7 +4214,7 @@
         <v>517</v>
       </c>
       <c r="B518">
-        <v>-0.8527580298619214</v>
+        <v>-0.85227576981118724</v>
       </c>
     </row>
     <row r="519">
@@ -4242,7 +4222,7 @@
         <v>518</v>
       </c>
       <c r="B519">
-        <v>-0.85609643725824125</v>
+        <v>-0.8556230024600312</v>
       </c>
     </row>
     <row r="520">
@@ -4250,7 +4230,7 @@
         <v>519</v>
       </c>
       <c r="B520">
-        <v>-1.1541697512323852</v>
+        <v>-1.1513192101340994</v>
       </c>
     </row>
     <row r="521">
@@ -4258,7 +4238,7 @@
         <v>520</v>
       </c>
       <c r="B521">
-        <v>-1.2217489297018715</v>
+        <v>-1.2175609375814758</v>
       </c>
     </row>
     <row r="522">
@@ -4266,7 +4246,7 @@
         <v>521</v>
       </c>
       <c r="B522">
-        <v>-1.1144980647209717</v>
+        <v>-1.1098927799996505</v>
       </c>
     </row>
     <row r="523">
@@ -4274,7 +4254,7 @@
         <v>522</v>
       </c>
       <c r="B523">
-        <v>-0.85597839480586668</v>
+        <v>-0.85209636288851875</v>
       </c>
     </row>
     <row r="524">
@@ -4282,7 +4262,7 @@
         <v>523</v>
       </c>
       <c r="B524">
-        <v>-0.5432208931092708</v>
+        <v>-0.54434495382530057</v>
       </c>
     </row>
     <row r="525">
@@ -4290,7 +4270,7 @@
         <v>524</v>
       </c>
       <c r="B525">
-        <v>-0.90015101232969885</v>
+        <v>-0.9001107535164643</v>
       </c>
     </row>
     <row r="526">
@@ -4298,7 +4278,7 @@
         <v>525</v>
       </c>
       <c r="B526">
-        <v>-0.9010431634419821</v>
+        <v>-0.90100019607868354</v>
       </c>
     </row>
     <row r="527">
@@ -4306,7 +4286,7 @@
         <v>526</v>
       </c>
       <c r="B527">
-        <v>-0.8886142525602202</v>
+        <v>-0.88844529488394575</v>
       </c>
     </row>
     <row r="528">
@@ -4314,7 +4294,7 @@
         <v>527</v>
       </c>
       <c r="B528">
-        <v>-0.89136581602780685</v>
+        <v>-0.89117976793130249</v>
       </c>
     </row>
     <row r="529">
@@ -4322,7 +4302,7 @@
         <v>528</v>
       </c>
       <c r="B529">
-        <v>2.1157773307679029</v>
+        <v>2.1122646259107918</v>
       </c>
     </row>
     <row r="530">
@@ -4330,7 +4310,7 @@
         <v>529</v>
       </c>
       <c r="B530">
-        <v>2.0793859694490595</v>
+        <v>2.0777295618927889</v>
       </c>
     </row>
     <row r="531">
@@ -4338,7 +4318,7 @@
         <v>530</v>
       </c>
       <c r="B531">
-        <v>1.9945019794035947</v>
+        <v>1.9926557196457653</v>
       </c>
     </row>
     <row r="532">
@@ -4346,7 +4326,7 @@
         <v>531</v>
       </c>
       <c r="B532">
-        <v>2.0619834739640419</v>
+        <v>2.0562412933392995</v>
       </c>
     </row>
     <row r="533">
@@ -4354,7 +4334,7 @@
         <v>532</v>
       </c>
       <c r="B533">
-        <v>2.0392273813000035</v>
+        <v>2.0342275109702266</v>
       </c>
     </row>
     <row r="534">
@@ -4362,7 +4342,7 @@
         <v>533</v>
       </c>
       <c r="B534">
-        <v>2.0950832956005976</v>
+        <v>2.0914917220002107</v>
       </c>
     </row>
     <row r="535">
@@ -4370,7 +4350,7 @@
         <v>534</v>
       </c>
       <c r="B535">
-        <v>2.027875178609869</v>
+        <v>2.0243313185413068</v>
       </c>
     </row>
     <row r="536">
@@ -4378,7 +4358,7 @@
         <v>535</v>
       </c>
       <c r="B536">
-        <v>1.8632593250027718</v>
+        <v>1.8609576459235138</v>
       </c>
     </row>
     <row r="537">
@@ -4386,7 +4366,7 @@
         <v>536</v>
       </c>
       <c r="B537">
-        <v>2.0201897227664216</v>
+        <v>2.0140060543049176</v>
       </c>
     </row>
     <row r="538">
@@ -4394,7 +4374,7 @@
         <v>537</v>
       </c>
       <c r="B538">
-        <v>1.9206684211190936</v>
+        <v>1.9144500541685601</v>
       </c>
     </row>
     <row r="539">
@@ -4402,7 +4382,7 @@
         <v>538</v>
       </c>
       <c r="B539">
-        <v>1.8117630961963451</v>
+        <v>1.8060006679372167</v>
       </c>
     </row>
     <row r="540">
@@ -4410,7 +4390,7 @@
         <v>539</v>
       </c>
       <c r="B540">
-        <v>1.7300475486918525</v>
+        <v>1.7257174813816729</v>
       </c>
     </row>
     <row r="541">
@@ -4418,7 +4398,7 @@
         <v>540</v>
       </c>
       <c r="B541">
-        <v>1.8609776154567301</v>
+        <v>1.8571149174465278</v>
       </c>
     </row>
     <row r="542">
@@ -4426,7 +4406,7 @@
         <v>541</v>
       </c>
       <c r="B542">
-        <v>1.6939046505376363</v>
+        <v>1.6910881794197408</v>
       </c>
     </row>
     <row r="543">
@@ -4434,7 +4414,7 @@
         <v>542</v>
       </c>
       <c r="B543">
-        <v>1.4347287591244864</v>
+        <v>1.4332173903465468</v>
       </c>
     </row>
     <row r="544">
@@ -4442,7 +4422,7 @@
         <v>543</v>
       </c>
       <c r="B544">
-        <v>1.0856235810878656</v>
+        <v>1.0778491641049648</v>
       </c>
     </row>
     <row r="545">
@@ -4450,7 +4430,7 @@
         <v>544</v>
       </c>
       <c r="B545">
-        <v>1.1146126442753366</v>
+        <v>1.1074173124987026</v>
       </c>
     </row>
     <row r="546">
@@ -4458,7 +4438,7 @@
         <v>545</v>
       </c>
       <c r="B546">
-        <v>1.2540010024125217</v>
+        <v>1.251887993171509</v>
       </c>
     </row>
     <row r="547">
@@ -4466,7 +4446,7 @@
         <v>546</v>
       </c>
       <c r="B547">
-        <v>1.2523422287864312</v>
+        <v>1.24796314712984</v>
       </c>
     </row>
     <row r="548">
@@ -4474,7 +4454,7 @@
         <v>547</v>
       </c>
       <c r="B548">
-        <v>1.2567630246623678</v>
+        <v>1.2526618775886027</v>
       </c>
     </row>
     <row r="549">
@@ -4482,7 +4462,7 @@
         <v>548</v>
       </c>
       <c r="B549">
-        <v>1.2427438670765141</v>
+        <v>1.2394185567216658</v>
       </c>
     </row>
     <row r="550">
@@ -4490,7 +4470,7 @@
         <v>549</v>
       </c>
       <c r="B550">
-        <v>1.1177657715358937</v>
+        <v>1.1156079975910729</v>
       </c>
     </row>
     <row r="551">
@@ -4498,7 +4478,7 @@
         <v>550</v>
       </c>
       <c r="B551">
-        <v>0.89051909379241168</v>
+        <v>0.8887689194556071</v>
       </c>
     </row>
     <row r="552">
@@ -4506,7 +4486,7 @@
         <v>551</v>
       </c>
       <c r="B552">
-        <v>0.20364625488815311</v>
+        <v>0.19671962123852349</v>
       </c>
     </row>
     <row r="553">
@@ -4514,7 +4494,7 @@
         <v>552</v>
       </c>
       <c r="B553">
-        <v>0.26697160192549207</v>
+        <v>0.26024407716773357</v>
       </c>
     </row>
     <row r="554">
@@ -4522,7 +4502,7 @@
         <v>553</v>
       </c>
       <c r="B554">
-        <v>0.42258721142734973</v>
+        <v>0.41684156012701129</v>
       </c>
     </row>
     <row r="555">
@@ -4530,7 +4510,7 @@
         <v>554</v>
       </c>
       <c r="B555">
-        <v>0.53728455141679066</v>
+        <v>0.53270689948214556</v>
       </c>
     </row>
     <row r="556">
@@ -4538,7 +4518,7 @@
         <v>555</v>
       </c>
       <c r="B556">
-        <v>0.59459668073678151</v>
+        <v>0.59045587951263645</v>
       </c>
     </row>
     <row r="557">
@@ -4546,7 +4526,7 @@
         <v>556</v>
       </c>
       <c r="B557">
-        <v>0.58511876418826547</v>
+        <v>0.58111391811895585</v>
       </c>
     </row>
     <row r="558">
@@ -4554,7 +4534,7 @@
         <v>557</v>
       </c>
       <c r="B558">
-        <v>0.5946490401115474</v>
+        <v>0.5906345682874069</v>
       </c>
     </row>
     <row r="559">
@@ -4562,7 +4542,7 @@
         <v>558</v>
       </c>
       <c r="B559">
-        <v>0.53700485333306058</v>
+        <v>0.53414040302835664</v>
       </c>
     </row>
     <row r="560">
@@ -4570,7 +4550,7 @@
         <v>559</v>
       </c>
       <c r="B560">
-        <v>0.49608751456987127</v>
+        <v>0.49431660940985261</v>
       </c>
     </row>
     <row r="561">
@@ -4578,7 +4558,7 @@
         <v>560</v>
       </c>
       <c r="B561">
-        <v>-0.18423857611139607</v>
+        <v>-0.18925023834798146</v>
       </c>
     </row>
     <row r="562">
@@ -4586,7 +4566,7 @@
         <v>561</v>
       </c>
       <c r="B562">
-        <v>-0.17660964560009201</v>
+        <v>-0.18065484979819441</v>
       </c>
     </row>
     <row r="563">
@@ -4594,7 +4574,7 @@
         <v>562</v>
       </c>
       <c r="B563">
-        <v>-0.10059864470523758</v>
+        <v>-0.10351290362908847</v>
       </c>
     </row>
     <row r="564">
@@ -4602,7 +4582,7 @@
         <v>563</v>
       </c>
       <c r="B564">
-        <v>-0.02790994878301151</v>
+        <v>-0.029527760947322346</v>
       </c>
     </row>
     <row r="565">
@@ -4610,7 +4590,7 @@
         <v>564</v>
       </c>
       <c r="B565">
-        <v>0.014746343343747685</v>
+        <v>0.013482296638343556</v>
       </c>
     </row>
     <row r="566">
@@ -4618,7 +4598,7 @@
         <v>565</v>
       </c>
       <c r="B566">
-        <v>-0.011175965487262749</v>
+        <v>-0.012304864081374677</v>
       </c>
     </row>
     <row r="567">
@@ -4626,7 +4606,7 @@
         <v>566</v>
       </c>
       <c r="B567">
-        <v>-0.025756260239598365</v>
+        <v>-0.027282758639307743</v>
       </c>
     </row>
     <row r="568">
@@ -4634,7 +4614,7 @@
         <v>567</v>
       </c>
       <c r="B568">
-        <v>-0.069405063882510054</v>
+        <v>-0.070973091572798894</v>
       </c>
     </row>
     <row r="569">
@@ -4642,7 +4622,7 @@
         <v>568</v>
       </c>
       <c r="B569">
-        <v>0.014584933722827598</v>
+        <v>0.012663178047449651</v>
       </c>
     </row>
     <row r="570">
@@ -4650,7 +4630,7 @@
         <v>569</v>
       </c>
       <c r="B570">
-        <v>0.12480877708641454</v>
+        <v>0.12228042825954108</v>
       </c>
     </row>
     <row r="571">
@@ -4658,7 +4638,7 @@
         <v>570</v>
       </c>
       <c r="B571">
-        <v>-0.68480015658847582</v>
+        <v>-0.69043691842341104</v>
       </c>
     </row>
     <row r="572">
@@ -4666,7 +4646,7 @@
         <v>571</v>
       </c>
       <c r="B572">
-        <v>-0.51178986822499284</v>
+        <v>-0.51414549822929123</v>
       </c>
     </row>
     <row r="573">
@@ -4674,7 +4654,7 @@
         <v>572</v>
       </c>
       <c r="B573">
-        <v>-0.4655895382278572</v>
+        <v>-0.46542453779100434</v>
       </c>
     </row>
     <row r="574">
@@ -4682,7 +4662,7 @@
         <v>573</v>
       </c>
       <c r="B574">
-        <v>-0.45175321757545911</v>
+        <v>-0.45051019297310974</v>
       </c>
     </row>
     <row r="575">
@@ -4690,7 +4670,7 @@
         <v>574</v>
       </c>
       <c r="B575">
-        <v>-0.45996922896839271</v>
+        <v>-0.45798911291743649</v>
       </c>
     </row>
     <row r="576">
@@ -4698,7 +4678,7 @@
         <v>575</v>
       </c>
       <c r="B576">
-        <v>-0.4838554123667827</v>
+        <v>-0.48177955697757968</v>
       </c>
     </row>
     <row r="577">
@@ -4706,7 +4686,7 @@
         <v>576</v>
       </c>
       <c r="B577">
-        <v>-0.5295650398210181</v>
+        <v>-0.52792692743194192</v>
       </c>
     </row>
     <row r="578">
@@ -4714,7 +4694,7 @@
         <v>577</v>
       </c>
       <c r="B578">
-        <v>-0.57326882108199673</v>
+        <v>-0.57284194369600583</v>
       </c>
     </row>
     <row r="579">
@@ -4722,7 +4702,7 @@
         <v>578</v>
       </c>
       <c r="B579">
-        <v>-0.45301041648459384</v>
+        <v>-0.45409199711547982</v>
       </c>
     </row>
     <row r="580">
@@ -4730,7 +4710,7 @@
         <v>579</v>
       </c>
       <c r="B580">
-        <v>-0.23664006638531249</v>
+        <v>-0.23924446335247723</v>
       </c>
     </row>
     <row r="581">
@@ -4738,7 +4718,7 @@
         <v>580</v>
       </c>
       <c r="B581">
-        <v>-0.15979373538957767</v>
+        <v>-0.16327436207507168</v>
       </c>
     </row>
     <row r="582">
@@ -4746,7 +4726,7 @@
         <v>581</v>
       </c>
       <c r="B582">
-        <v>-0.6953387129490457</v>
+        <v>-0.70078885373793154</v>
       </c>
     </row>
     <row r="583">
@@ -4754,7 +4734,7 @@
         <v>582</v>
       </c>
       <c r="B583">
-        <v>-0.53003257949070259</v>
+        <v>-0.53224510043171669</v>
       </c>
     </row>
     <row r="584">
@@ -4762,7 +4742,7 @@
         <v>583</v>
       </c>
       <c r="B584">
-        <v>-0.50370827123755568</v>
+        <v>-0.50344536032048337</v>
       </c>
     </row>
     <row r="585">
@@ -4770,7 +4750,7 @@
         <v>584</v>
       </c>
       <c r="B585">
-        <v>-0.5005633347078069</v>
+        <v>-0.49922541866721193</v>
       </c>
     </row>
     <row r="586">
@@ -4778,7 +4758,7 @@
         <v>585</v>
       </c>
       <c r="B586">
-        <v>-0.5116229067386211</v>
+        <v>-0.50957558230945177</v>
       </c>
     </row>
     <row r="587">
@@ -4786,7 +4766,7 @@
         <v>586</v>
       </c>
       <c r="B587">
-        <v>-0.51801979458705538</v>
+        <v>-0.51585431042605534</v>
       </c>
     </row>
     <row r="588">
@@ -4794,7 +4774,7 @@
         <v>587</v>
       </c>
       <c r="B588">
-        <v>-0.5491265756227478</v>
+        <v>-0.54735074198002309</v>
       </c>
     </row>
     <row r="589">
@@ -4802,7 +4782,7 @@
         <v>588</v>
       </c>
       <c r="B589">
-        <v>-0.61163666979262288</v>
+        <v>-0.61117268998980123</v>
       </c>
     </row>
     <row r="590">
@@ -4810,7 +4790,7 @@
         <v>589</v>
       </c>
       <c r="B590">
-        <v>-0.53233323856087778</v>
+        <v>-0.53345498252830059</v>
       </c>
     </row>
     <row r="591">
@@ -4818,7 +4798,7 @@
         <v>590</v>
       </c>
       <c r="B591">
-        <v>-0.32444167629308901</v>
+        <v>-0.32713802583615598</v>
       </c>
     </row>
     <row r="592">
@@ -4826,7 +4806,7 @@
         <v>591</v>
       </c>
       <c r="B592">
-        <v>-0.20330676062412531</v>
+        <v>-0.20684670402008523</v>
       </c>
     </row>
     <row r="593">
@@ -4834,7 +4814,7 @@
         <v>592</v>
       </c>
       <c r="B593">
-        <v>-0.51927696300931925</v>
+        <v>-0.52140421170571338</v>
       </c>
     </row>
     <row r="594">
@@ -4842,7 +4822,7 @@
         <v>593</v>
       </c>
       <c r="B594">
-        <v>-0.63928978152707949</v>
+        <v>-0.64019260761102736</v>
       </c>
     </row>
     <row r="595">
@@ -4850,7 +4830,7 @@
         <v>594</v>
       </c>
       <c r="B595">
-        <v>-0.69743068172226497</v>
+        <v>-0.69586645843331552</v>
       </c>
     </row>
     <row r="596">
@@ -4858,7 +4838,7 @@
         <v>595</v>
       </c>
       <c r="B596">
-        <v>-0.13088855429534876</v>
+        <v>-0.12689706201700465</v>
       </c>
     </row>
     <row r="597">
@@ -4866,7 +4846,7 @@
         <v>596</v>
       </c>
       <c r="B597">
-        <v>-0.80479621925683331</v>
+        <v>-0.80141241033485233</v>
       </c>
     </row>
     <row r="598">
@@ -4874,7 +4854,7 @@
         <v>597</v>
       </c>
       <c r="B598">
-        <v>-0.80663221637708782</v>
+        <v>-0.80320043803070273</v>
       </c>
     </row>
     <row r="599">
@@ -4882,7 +4862,7 @@
         <v>598</v>
       </c>
       <c r="B599">
-        <v>-0.84140576055410266</v>
+        <v>-0.83785987380594873</v>
       </c>
     </row>
     <row r="600">
@@ -4890,7 +4870,7 @@
         <v>599</v>
       </c>
       <c r="B600">
-        <v>-0.88084771872909495</v>
+        <v>-0.87854642039332997</v>
       </c>
     </row>
     <row r="601">
@@ -4898,7 +4878,7 @@
         <v>600</v>
       </c>
       <c r="B601">
-        <v>-0.77895083934878273</v>
+        <v>-0.77857408968679798</v>
       </c>
     </row>
     <row r="602">
@@ -4906,7 +4886,7 @@
         <v>601</v>
       </c>
       <c r="B602">
-        <v>-0.56628696903798048</v>
+        <v>-0.5679956253717815</v>
       </c>
     </row>
     <row r="603">
@@ -4914,7 +4894,7 @@
         <v>602</v>
       </c>
       <c r="B603">
-        <v>-0.41321287212052998</v>
+        <v>-0.41589719403199465</v>
       </c>
     </row>
     <row r="604">
@@ -4922,7 +4902,7 @@
         <v>603</v>
       </c>
       <c r="B604">
-        <v>-0.46288830240049444</v>
+        <v>-0.46429876791661889</v>
       </c>
     </row>
     <row r="605">
@@ -4930,7 +4910,7 @@
         <v>604</v>
       </c>
       <c r="B605">
-        <v>-0.63151649130202037</v>
+        <v>-0.63130589302347828</v>
       </c>
     </row>
     <row r="606">
@@ -4938,7 +4918,7 @@
         <v>605</v>
       </c>
       <c r="B606">
-        <v>-0.72915077130440176</v>
+        <v>-0.72695112728308575</v>
       </c>
     </row>
     <row r="607">
@@ -4946,7 +4926,7 @@
         <v>606</v>
       </c>
       <c r="B607">
-        <v>-0.81459008954020062</v>
+        <v>-0.81128497017753143</v>
       </c>
     </row>
     <row r="608">
@@ -4954,7 +4934,7 @@
         <v>607</v>
       </c>
       <c r="B608">
-        <v>-0.94047963190393935</v>
+        <v>-0.93675508292217857</v>
       </c>
     </row>
     <row r="609">
@@ -4962,7 +4942,7 @@
         <v>608</v>
       </c>
       <c r="B609">
-        <v>-0.93629567665833791</v>
+        <v>-0.93252511260988435</v>
       </c>
     </row>
     <row r="610">
@@ -4970,7 +4950,7 @@
         <v>609</v>
       </c>
       <c r="B610">
-        <v>-1.0320345558762221</v>
+        <v>-1.027915983129599</v>
       </c>
     </row>
     <row r="611">
@@ -4978,7 +4958,7 @@
         <v>610</v>
       </c>
       <c r="B611">
-        <v>-1.0383389452266274</v>
+        <v>-1.0342851721419923</v>
       </c>
     </row>
     <row r="612">
@@ -4986,7 +4966,7 @@
         <v>611</v>
       </c>
       <c r="B612">
-        <v>-0.93785549307983085</v>
+        <v>-0.93593886487023681</v>
       </c>
     </row>
     <row r="613">
@@ -4994,7 +4974,7 @@
         <v>612</v>
       </c>
       <c r="B613">
-        <v>-0.78416426836597941</v>
+        <v>-0.78399421613587172</v>
       </c>
     </row>
     <row r="614">
@@ -5002,7 +4982,7 @@
         <v>613</v>
       </c>
       <c r="B614">
-        <v>-0.60788539551417864</v>
+        <v>-0.60888126851480384</v>
       </c>
     </row>
     <row r="615">
@@ -5010,7 +4990,7 @@
         <v>614</v>
       </c>
       <c r="B615">
-        <v>-0.26146020778520673</v>
+        <v>-0.26209034554475613</v>
       </c>
     </row>
     <row r="616">
@@ -5018,7 +4998,7 @@
         <v>615</v>
       </c>
       <c r="B616">
-        <v>-0.46322738101483418</v>
+        <v>-0.4627649913236358</v>
       </c>
     </row>
     <row r="617">
@@ -5026,7 +5006,7 @@
         <v>616</v>
       </c>
       <c r="B617">
-        <v>-0.60205588499185736</v>
+        <v>-0.60032139019685371</v>
       </c>
     </row>
     <row r="618">
@@ -5034,7 +5014,7 @@
         <v>617</v>
       </c>
       <c r="B618">
-        <v>-0.77251310240693249</v>
+        <v>-0.76993684832876674</v>
       </c>
     </row>
     <row r="619">
@@ -5042,7 +5022,7 @@
         <v>618</v>
       </c>
       <c r="B619">
-        <v>-0.91207324398161793</v>
+        <v>-0.90798049546305881</v>
       </c>
     </row>
     <row r="620">
@@ -5050,7 +5030,7 @@
         <v>619</v>
       </c>
       <c r="B620">
-        <v>-0.92561755382316746</v>
+        <v>-0.92153723977540714</v>
       </c>
     </row>
     <row r="621">
@@ -5058,7 +5038,7 @@
         <v>620</v>
       </c>
       <c r="B621">
-        <v>-1.0790363780852712</v>
+        <v>-1.0745436049889592</v>
       </c>
     </row>
     <row r="622">
@@ -5066,7 +5046,7 @@
         <v>621</v>
       </c>
       <c r="B622">
-        <v>-1.0818491893532558</v>
+        <v>-1.0774077825520401</v>
       </c>
     </row>
     <row r="623">
@@ -5074,7 +5054,7 @@
         <v>622</v>
       </c>
       <c r="B623">
-        <v>-1.0106499558870281</v>
+        <v>-1.0065391555097927</v>
       </c>
     </row>
     <row r="624">
@@ -5082,7 +5062,7 @@
         <v>623</v>
       </c>
       <c r="B624">
-        <v>-0.87560788954581092</v>
+        <v>-0.87285197523493463</v>
       </c>
     </row>
     <row r="625">
@@ -5090,7 +5070,7 @@
         <v>624</v>
       </c>
       <c r="B625">
-        <v>-0.67877820927888732</v>
+        <v>-0.6775854918204347</v>
       </c>
     </row>
     <row r="626">
@@ -5098,7 +5078,7 @@
         <v>625</v>
       </c>
       <c r="B626">
-        <v>-0.2346480810152414</v>
+        <v>-0.23503455800478412</v>
       </c>
     </row>
     <row r="627">
@@ -5106,7 +5086,7 @@
         <v>626</v>
       </c>
       <c r="B627">
-        <v>-0.41009604407260086</v>
+        <v>-0.40919885625099783</v>
       </c>
     </row>
     <row r="628">
@@ -5114,7 +5094,7 @@
         <v>627</v>
       </c>
       <c r="B628">
-        <v>-0.61249022601501391</v>
+        <v>-0.61040415271382142</v>
       </c>
     </row>
     <row r="629">
@@ -5122,7 +5102,7 @@
         <v>628</v>
       </c>
       <c r="B629">
-        <v>-0.79372971892287636</v>
+        <v>-0.78966618736353067</v>
       </c>
     </row>
     <row r="630">
@@ -5130,7 +5110,7 @@
         <v>629</v>
       </c>
       <c r="B630">
-        <v>-0.80626285868622294</v>
+        <v>-0.80220234529717926</v>
       </c>
     </row>
     <row r="631">
@@ -5138,7 +5118,7 @@
         <v>630</v>
       </c>
       <c r="B631">
-        <v>-1.0029311444750402</v>
+        <v>-0.99785996655960607</v>
       </c>
     </row>
     <row r="632">
@@ -5146,7 +5126,7 @@
         <v>631</v>
       </c>
       <c r="B632">
-        <v>-1.033922922938153</v>
+        <v>-1.0282352648914947</v>
       </c>
     </row>
     <row r="633">
@@ -5154,7 +5134,7 @@
         <v>632</v>
       </c>
       <c r="B633">
-        <v>-0.97637307265643569</v>
+        <v>-0.9712626258941035</v>
       </c>
     </row>
     <row r="634">
@@ -5162,7 +5142,7 @@
         <v>633</v>
       </c>
       <c r="B634">
-        <v>-0.79443894033527074</v>
+        <v>-0.79045866415046884</v>
       </c>
     </row>
     <row r="635">
@@ -5170,7 +5150,7 @@
         <v>634</v>
       </c>
       <c r="B635">
-        <v>-0.63083507692861629</v>
+        <v>-0.62834738291791736</v>
       </c>
     </row>
     <row r="636">
@@ -5178,7 +5158,7 @@
         <v>635</v>
       </c>
       <c r="B636">
-        <v>-0.00094622970154069547</v>
+        <v>-0.0011447459737358508</v>
       </c>
     </row>
     <row r="637">
@@ -5186,7 +5166,7 @@
         <v>636</v>
       </c>
       <c r="B637">
-        <v>-0.19123432288782377</v>
+        <v>-0.19118129763481526</v>
       </c>
     </row>
     <row r="638">
@@ -5194,7 +5174,7 @@
         <v>637</v>
       </c>
       <c r="B638">
-        <v>-0.45066670079677995</v>
+        <v>-0.44914708640325279</v>
       </c>
     </row>
     <row r="639">
@@ -5202,7 +5182,7 @@
         <v>638</v>
       </c>
       <c r="B639">
-        <v>-0.68938519525960285</v>
+        <v>-0.68588088863464458</v>
       </c>
     </row>
     <row r="640">
@@ -5210,7 +5190,7 @@
         <v>639</v>
       </c>
       <c r="B640">
-        <v>-0.70137553982182199</v>
+        <v>-0.69788205119146463</v>
       </c>
     </row>
     <row r="641">
@@ -5218,7 +5198,7 @@
         <v>640</v>
       </c>
       <c r="B641">
-        <v>-0.93592475444099588</v>
+        <v>-0.93054354970548403</v>
       </c>
     </row>
     <row r="642">
@@ -5226,7 +5206,7 @@
         <v>641</v>
       </c>
       <c r="B642">
-        <v>-1.0131908758291988</v>
+        <v>-1.0069544615607786</v>
       </c>
     </row>
     <row r="643">
@@ -5234,7 +5214,7 @@
         <v>642</v>
       </c>
       <c r="B643">
-        <v>-0.90988134960852274</v>
+        <v>-0.9038849241393424</v>
       </c>
     </row>
     <row r="644">
@@ -5242,7 +5222,7 @@
         <v>643</v>
       </c>
       <c r="B644">
-        <v>-0.7167817683595652</v>
+        <v>-0.71116549004346452</v>
       </c>
     </row>
     <row r="645">
@@ -5250,7 +5230,7 @@
         <v>644</v>
       </c>
       <c r="B645">
-        <v>-0.51703476591508279</v>
+        <v>-0.51252253348146903</v>
       </c>
     </row>
     <row r="646">
@@ -5258,7 +5238,7 @@
         <v>645</v>
       </c>
       <c r="B646">
-        <v>0.18539005949297058</v>
+        <v>0.18570434220306883</v>
       </c>
     </row>
     <row r="647">
@@ -5266,7 +5246,7 @@
         <v>646</v>
       </c>
       <c r="B647">
-        <v>-0.010231794810649808</v>
+        <v>-0.0091396323204026627</v>
       </c>
     </row>
     <row r="648">
@@ -5274,7 +5254,7 @@
         <v>647</v>
       </c>
       <c r="B648">
-        <v>-0.25404336649949727</v>
+        <v>-0.25213030947836501</v>
       </c>
     </row>
     <row r="649">
@@ -5282,7 +5262,7 @@
         <v>648</v>
       </c>
       <c r="B649">
-        <v>-0.58121879837032175</v>
+        <v>-0.57780479370940507</v>
       </c>
     </row>
     <row r="650">
@@ -5290,7 +5270,7 @@
         <v>649</v>
       </c>
       <c r="B650">
-        <v>-0.58686107019323408</v>
+        <v>-0.58341653694449369</v>
       </c>
     </row>
     <row r="651">
@@ -5298,7 +5278,7 @@
         <v>650</v>
       </c>
       <c r="B651">
-        <v>-0.84801033681503346</v>
+        <v>-0.84187742226402484</v>
       </c>
     </row>
     <row r="652">
@@ -5306,7 +5286,7 @@
         <v>651</v>
       </c>
       <c r="B652">
-        <v>-0.94764661839224484</v>
+        <v>-0.94101622717246114</v>
       </c>
     </row>
     <row r="653">
@@ -5314,7 +5294,7 @@
         <v>652</v>
       </c>
       <c r="B653">
-        <v>-0.84858153413199977</v>
+        <v>-0.84233488298300874</v>
       </c>
     </row>
     <row r="654">
@@ -5322,7 +5302,7 @@
         <v>653</v>
       </c>
       <c r="B654">
-        <v>-0.62503123751252787</v>
+        <v>-0.61919150263225908</v>
       </c>
     </row>
     <row r="655">
@@ -5330,7 +5310,7 @@
         <v>654</v>
       </c>
       <c r="B655">
-        <v>-0.0080236178376696336</v>
+        <v>-0.005868498881255073</v>
       </c>
     </row>
     <row r="656">
@@ -5338,7 +5318,7 @@
         <v>655</v>
       </c>
       <c r="B656">
-        <v>-0.27159818899304417</v>
+        <v>-0.26865464834423708</v>
       </c>
     </row>
     <row r="657">
@@ -5346,7 +5326,7 @@
         <v>656</v>
       </c>
       <c r="B657">
-        <v>-0.60991898439244441</v>
+        <v>-0.60584546256183613</v>
       </c>
     </row>
     <row r="658">
@@ -5354,7 +5334,7 @@
         <v>657</v>
       </c>
       <c r="B658">
-        <v>-0.60915061463004461</v>
+        <v>-0.60504078939599859</v>
       </c>
     </row>
     <row r="659">
@@ -5362,7 +5342,7 @@
         <v>658</v>
       </c>
       <c r="B659">
-        <v>-0.8462785036842505</v>
+        <v>-0.84001963596925033</v>
       </c>
     </row>
     <row r="660">
@@ -5370,7 +5350,7 @@
         <v>659</v>
       </c>
       <c r="B660">
-        <v>-0.92673734968999955</v>
+        <v>-0.91974084510141063</v>
       </c>
     </row>
     <row r="661">
@@ -5378,7 +5358,7 @@
         <v>660</v>
       </c>
       <c r="B661">
-        <v>0.028616459929441083</v>
+        <v>0.030902398183775787</v>
       </c>
     </row>
     <row r="662">
@@ -5386,7 +5366,7 @@
         <v>661</v>
       </c>
       <c r="B662">
-        <v>-0.25684685364192644</v>
+        <v>-0.25380460264321153</v>
       </c>
     </row>
     <row r="663">
@@ -5394,7 +5374,7 @@
         <v>662</v>
       </c>
       <c r="B663">
-        <v>-0.59375464863765659</v>
+        <v>-0.58959167065804685</v>
       </c>
     </row>
     <row r="664">
@@ -5402,7 +5382,7 @@
         <v>663</v>
       </c>
       <c r="B664">
-        <v>-0.58182120293262996</v>
+        <v>-0.57761928583942923</v>
       </c>
     </row>
     <row r="665">
@@ -5410,7 +5390,7 @@
         <v>664</v>
       </c>
       <c r="B665">
-        <v>-0.81439473537029861</v>
+        <v>-0.80805037224743204</v>
       </c>
     </row>
     <row r="666">
@@ -5418,7 +5398,7 @@
         <v>665</v>
       </c>
       <c r="B666">
-        <v>-0.8764976520951776</v>
+        <v>-0.8694179532873364</v>
       </c>
     </row>
     <row r="667">
@@ -5426,7 +5406,7 @@
         <v>666</v>
       </c>
       <c r="B667">
-        <v>1.2616323829279019</v>
+        <v>1.2553525055940495</v>
       </c>
     </row>
     <row r="668">
@@ -5434,7 +5414,7 @@
         <v>667</v>
       </c>
       <c r="B668">
-        <v>1.337274312321594</v>
+        <v>1.3313460460581725</v>
       </c>
     </row>
     <row r="669">
@@ -5442,7 +5422,7 @@
         <v>668</v>
       </c>
       <c r="B669">
-        <v>0.84353776143268255</v>
+        <v>0.83466303904486006</v>
       </c>
     </row>
     <row r="670">
@@ -5450,7 +5430,7 @@
         <v>669</v>
       </c>
       <c r="B670">
-        <v>0.96901701685594088</v>
+        <v>0.9617307250971443</v>
       </c>
     </row>
     <row r="671">
@@ -5458,7 +5438,7 @@
         <v>670</v>
       </c>
       <c r="B671">
-        <v>1.008099459767855</v>
+        <v>1.0024583883018774</v>
       </c>
     </row>
     <row r="672">
@@ -5466,7 +5446,7 @@
         <v>671</v>
       </c>
       <c r="B672">
-        <v>1.0214723040131375</v>
+        <v>1.0160395247921545</v>
       </c>
     </row>
     <row r="673">
@@ -5474,7 +5454,7 @@
         <v>672</v>
       </c>
       <c r="B673">
-        <v>0.99539483163578713</v>
+        <v>0.99132400364727613</v>
       </c>
     </row>
     <row r="674">
@@ -5482,7 +5462,7 @@
         <v>673</v>
       </c>
       <c r="B674">
-        <v>0.28691291468504765</v>
+        <v>0.2787001212764601</v>
       </c>
     </row>
     <row r="675">
@@ -5490,7 +5470,7 @@
         <v>674</v>
       </c>
       <c r="B675">
-        <v>0.42712369990286603</v>
+        <v>0.41958958113245931</v>
       </c>
     </row>
     <row r="676">
@@ -5498,7 +5478,7 @@
         <v>675</v>
       </c>
       <c r="B676">
-        <v>0.49745529173138925</v>
+        <v>0.49202571546559232</v>
       </c>
     </row>
     <row r="677">
@@ -5506,7 +5486,7 @@
         <v>676</v>
       </c>
       <c r="B677">
-        <v>0.54083759666197795</v>
+        <v>0.53654037898448126</v>
       </c>
     </row>
     <row r="678">
@@ -5514,7 +5494,7 @@
         <v>677</v>
       </c>
       <c r="B678">
-        <v>0.54243439876340849</v>
+        <v>0.53834010874321403</v>
       </c>
     </row>
     <row r="679">
@@ -5522,7 +5502,7 @@
         <v>678</v>
       </c>
       <c r="B679">
-        <v>0.49786006237422009</v>
+        <v>0.49422418160506182</v>
       </c>
     </row>
     <row r="680">
@@ -5530,7 +5510,7 @@
         <v>679</v>
       </c>
       <c r="B680">
-        <v>0.45384803808618246</v>
+        <v>0.45105552265181342</v>
       </c>
     </row>
     <row r="681">
@@ -5538,7 +5518,7 @@
         <v>680</v>
       </c>
       <c r="B681">
-        <v>0.44571475388734239</v>
+        <v>0.44289600406634255</v>
       </c>
     </row>
     <row r="682">
@@ -5546,7 +5526,7 @@
         <v>681</v>
       </c>
       <c r="B682">
-        <v>-0.084575511298224035</v>
+        <v>-0.090302168153663362</v>
       </c>
     </row>
     <row r="683">
@@ -5554,7 +5534,7 @@
         <v>682</v>
       </c>
       <c r="B683">
-        <v>-0.10579062575709181</v>
+        <v>-0.11119392827726966</v>
       </c>
     </row>
     <row r="684">
@@ -5562,7 +5542,7 @@
         <v>683</v>
       </c>
       <c r="B684">
-        <v>-0.024259232976386599</v>
+        <v>-0.028537090806118277</v>
       </c>
     </row>
     <row r="685">
@@ -5570,7 +5550,7 @@
         <v>684</v>
       </c>
       <c r="B685">
-        <v>0.042020539362507478</v>
+        <v>0.038912092808243946</v>
       </c>
     </row>
     <row r="686">
@@ -5578,7 +5558,7 @@
         <v>685</v>
       </c>
       <c r="B686">
-        <v>0.073888810851010858</v>
+        <v>0.07196771583044681</v>
       </c>
     </row>
     <row r="687">
@@ -5586,7 +5566,7 @@
         <v>686</v>
       </c>
       <c r="B687">
-        <v>0.057134449403308613</v>
+        <v>0.055302097927022252</v>
       </c>
     </row>
     <row r="688">
@@ -5594,7 +5574,7 @@
         <v>687</v>
       </c>
       <c r="B688">
-        <v>0.024493980932135138</v>
+        <v>0.023077378192097375</v>
       </c>
     </row>
     <row r="689">
@@ -5602,7 +5582,7 @@
         <v>688</v>
       </c>
       <c r="B689">
-        <v>-0.029088745277139016</v>
+        <v>-0.030100889165397427</v>
       </c>
     </row>
     <row r="690">
@@ -5610,7 +5590,7 @@
         <v>689</v>
       </c>
       <c r="B690">
-        <v>0.031007190805281748</v>
+        <v>0.029571069989647866</v>
       </c>
     </row>
     <row r="691">
@@ -5618,7 +5598,7 @@
         <v>690</v>
       </c>
       <c r="B691">
-        <v>-0.3370111844236065</v>
+        <v>-0.34010248586347402</v>
       </c>
     </row>
     <row r="692">
@@ -5626,7 +5606,7 @@
         <v>691</v>
       </c>
       <c r="B692">
-        <v>-0.42447754516987513</v>
+        <v>-0.42704644932323554</v>
       </c>
     </row>
     <row r="693">
@@ -5634,7 +5614,7 @@
         <v>692</v>
       </c>
       <c r="B693">
-        <v>-0.35811360477599519</v>
+        <v>-0.35951181495170265</v>
       </c>
     </row>
     <row r="694">
@@ -5642,7 +5622,7 @@
         <v>693</v>
       </c>
       <c r="B694">
-        <v>-0.29867851016265812</v>
+        <v>-0.29899017756318003</v>
       </c>
     </row>
     <row r="695">
@@ -5650,7 +5630,7 @@
         <v>694</v>
       </c>
       <c r="B695">
-        <v>-0.29087730122725769</v>
+        <v>-0.28931197154229948</v>
       </c>
     </row>
     <row r="696">
@@ -5658,7 +5638,7 @@
         <v>695</v>
       </c>
       <c r="B696">
-        <v>-0.31533555512969685</v>
+        <v>-0.3137280947879813</v>
       </c>
     </row>
     <row r="697">
@@ -5666,7 +5646,7 @@
         <v>696</v>
       </c>
       <c r="B697">
-        <v>-0.37750548378570364</v>
+        <v>-0.3757173085414342</v>
       </c>
     </row>
     <row r="698">
@@ -5674,7 +5654,7 @@
         <v>697</v>
       </c>
       <c r="B698">
-        <v>-0.4437752406622924</v>
+        <v>-0.44278650330923641</v>
       </c>
     </row>
     <row r="699">
@@ -5682,7 +5662,7 @@
         <v>698</v>
       </c>
       <c r="B699">
-        <v>-0.34996654972877012</v>
+        <v>-0.35006958994797904</v>
       </c>
     </row>
     <row r="700">
@@ -5690,7 +5670,7 @@
         <v>699</v>
       </c>
       <c r="B700">
-        <v>-0.19844586629898056</v>
+        <v>-0.20046489971825973</v>
       </c>
     </row>
     <row r="701">
@@ -5698,7 +5678,7 @@
         <v>700</v>
       </c>
       <c r="B701">
-        <v>-0.31457889913219633</v>
+        <v>-0.31737863001090494</v>
       </c>
     </row>
     <row r="702">
@@ -5706,7 +5686,7 @@
         <v>701</v>
       </c>
       <c r="B702">
-        <v>-0.40999423258320666</v>
+        <v>-0.41227151208304219</v>
       </c>
     </row>
     <row r="703">
@@ -5714,7 +5694,7 @@
         <v>702</v>
       </c>
       <c r="B703">
-        <v>-0.35700607877105656</v>
+        <v>-0.35812993065290571</v>
       </c>
     </row>
     <row r="704">
@@ -5722,7 +5702,7 @@
         <v>703</v>
       </c>
       <c r="B704">
-        <v>-0.29370070642835316</v>
+        <v>-0.29369197424722071</v>
       </c>
     </row>
     <row r="705">
@@ -5730,7 +5710,7 @@
         <v>704</v>
       </c>
       <c r="B705">
-        <v>-0.28966797494973717</v>
+        <v>-0.28792792636136716</v>
       </c>
     </row>
     <row r="706">
@@ -5738,7 +5718,7 @@
         <v>705</v>
       </c>
       <c r="B706">
-        <v>-0.31280326758369309</v>
+        <v>-0.31109372746862868</v>
       </c>
     </row>
     <row r="707">
@@ -5746,7 +5726,7 @@
         <v>706</v>
       </c>
       <c r="B707">
-        <v>-0.38983506000982898</v>
+        <v>-0.38799470112369927</v>
       </c>
     </row>
     <row r="708">
@@ -5754,7 +5734,7 @@
         <v>707</v>
       </c>
       <c r="B708">
-        <v>-0.45516229345291997</v>
+        <v>-0.45413145901392638</v>
       </c>
     </row>
     <row r="709">
@@ -5762,7 +5742,7 @@
         <v>708</v>
       </c>
       <c r="B709">
-        <v>-0.40249342344635142</v>
+        <v>-0.40262746188653131</v>
       </c>
     </row>
     <row r="710">
@@ -5770,7 +5750,7 @@
         <v>709</v>
       </c>
       <c r="B710">
-        <v>-0.25717473558793447</v>
+        <v>-0.25921466939729698</v>
       </c>
     </row>
     <row r="711">
@@ -5778,7 +5758,7 @@
         <v>710</v>
       </c>
       <c r="B711">
-        <v>-0.35232811294091304</v>
+        <v>-0.353629282123819</v>
       </c>
     </row>
     <row r="712">
@@ -5786,7 +5766,7 @@
         <v>711</v>
       </c>
       <c r="B712">
-        <v>-0.43423324167673744</v>
+        <v>-0.43468447813012118</v>
       </c>
     </row>
     <row r="713">
@@ -5794,7 +5774,7 @@
         <v>712</v>
       </c>
       <c r="B713">
-        <v>-0.45357593609252778</v>
+        <v>-0.45192122690549091</v>
       </c>
     </row>
     <row r="714">
@@ -5802,7 +5782,7 @@
         <v>713</v>
       </c>
       <c r="B714">
-        <v>-0.47296445668358672</v>
+        <v>-0.47033924440550967</v>
       </c>
     </row>
     <row r="715">
@@ -5810,7 +5790,7 @@
         <v>714</v>
       </c>
       <c r="B715">
-        <v>-0.5624653935817765</v>
+        <v>-0.55931182612582064</v>
       </c>
     </row>
     <row r="716">
@@ -5818,7 +5798,7 @@
         <v>715</v>
       </c>
       <c r="B716">
-        <v>-0.58546935255938004</v>
+        <v>-0.58238317242090909</v>
       </c>
     </row>
     <row r="717">
@@ -5826,7 +5806,7 @@
         <v>716</v>
       </c>
       <c r="B717">
-        <v>-0.6891459564597</v>
+        <v>-0.68540976836211409</v>
       </c>
     </row>
     <row r="718">
@@ -5834,7 +5814,7 @@
         <v>717</v>
       </c>
       <c r="B718">
-        <v>-0.72978107694321304</v>
+        <v>-0.72687075231307596</v>
       </c>
     </row>
     <row r="719">
@@ -5842,7 +5822,7 @@
         <v>718</v>
       </c>
       <c r="B719">
-        <v>-0.65688565879919336</v>
+        <v>-0.65576622152661379</v>
       </c>
     </row>
     <row r="720">
@@ -5850,7 +5830,7 @@
         <v>719</v>
       </c>
       <c r="B720">
-        <v>-0.46282578022410731</v>
+        <v>-0.46349099905906938</v>
       </c>
     </row>
     <row r="721">
@@ -5858,7 +5838,7 @@
         <v>720</v>
       </c>
       <c r="B721">
-        <v>-0.35411039758545865</v>
+        <v>-0.35587691969948893</v>
       </c>
     </row>
     <row r="722">
@@ -5866,7 +5846,7 @@
         <v>721</v>
       </c>
       <c r="B722">
-        <v>-0.26755906632931381</v>
+        <v>-0.26758420002130495</v>
       </c>
     </row>
     <row r="723">
@@ -5874,7 +5854,7 @@
         <v>722</v>
       </c>
       <c r="B723">
-        <v>-0.35921964566172965</v>
+        <v>-0.35812797651441181</v>
       </c>
     </row>
     <row r="724">
@@ -5882,7 +5862,7 @@
         <v>723</v>
       </c>
       <c r="B724">
-        <v>-0.44742207031888998</v>
+        <v>-0.44458885677841903</v>
       </c>
     </row>
     <row r="725">
@@ -5890,7 +5870,7 @@
         <v>724</v>
       </c>
       <c r="B725">
-        <v>-0.5364364340784441</v>
+        <v>-0.53308104320349436</v>
       </c>
     </row>
     <row r="726">
@@ -5898,7 +5878,7 @@
         <v>725</v>
       </c>
       <c r="B726">
-        <v>-0.68486378864461417</v>
+        <v>-0.68056551295572631</v>
       </c>
     </row>
     <row r="727">
@@ -5906,7 +5886,7 @@
         <v>726</v>
       </c>
       <c r="B727">
-        <v>-0.70729335273643124</v>
+        <v>-0.70305178413172076</v>
       </c>
     </row>
     <row r="728">
@@ -5914,7 +5894,7 @@
         <v>727</v>
       </c>
       <c r="B728">
-        <v>-0.82533532939247056</v>
+        <v>-0.8203878666818486</v>
       </c>
     </row>
     <row r="729">
@@ -5922,7 +5902,7 @@
         <v>728</v>
       </c>
       <c r="B729">
-        <v>-0.86437942268463697</v>
+        <v>-0.86017669694171672</v>
       </c>
     </row>
     <row r="730">
@@ -5930,7 +5910,7 @@
         <v>729</v>
       </c>
       <c r="B730">
-        <v>-0.77956218117732989</v>
+        <v>-0.77725811593875371</v>
       </c>
     </row>
     <row r="731">
@@ -5938,7 +5918,7 @@
         <v>730</v>
       </c>
       <c r="B731">
-        <v>-0.60533992459524966</v>
+        <v>-0.60421609471291193</v>
       </c>
     </row>
     <row r="732">
@@ -5946,7 +5926,7 @@
         <v>731</v>
       </c>
       <c r="B732">
-        <v>-0.49269722043603348</v>
+        <v>-0.49269477103623388</v>
       </c>
     </row>
     <row r="733">
@@ -5954,7 +5934,7 @@
         <v>732</v>
       </c>
       <c r="B733">
-        <v>-0.074709322865027211</v>
+        <v>-0.073872519391349603</v>
       </c>
     </row>
     <row r="734">
@@ -5962,7 +5942,7 @@
         <v>733</v>
       </c>
       <c r="B734">
-        <v>-0.20649848974034124</v>
+        <v>-0.20483597893238456</v>
       </c>
     </row>
     <row r="735">
@@ -5970,7 +5950,7 @@
         <v>734</v>
       </c>
       <c r="B735">
-        <v>-0.33042831087096597</v>
+        <v>-0.3278877251313736</v>
       </c>
     </row>
     <row r="736">
@@ -5978,7 +5958,7 @@
         <v>735</v>
       </c>
       <c r="B736">
-        <v>-0.4797090482839933</v>
+        <v>-0.4763537921711562</v>
       </c>
     </row>
     <row r="737">
@@ -5986,7 +5966,7 @@
         <v>736</v>
       </c>
       <c r="B737">
-        <v>-0.64848394355066352</v>
+        <v>-0.64454282346669189</v>
       </c>
     </row>
     <row r="738">
@@ -5994,7 +5974,7 @@
         <v>737</v>
       </c>
       <c r="B738">
-        <v>-0.66404123827996886</v>
+        <v>-0.66011547974023788</v>
       </c>
     </row>
     <row r="739">
@@ -6002,7 +5982,7 @@
         <v>738</v>
       </c>
       <c r="B739">
-        <v>-0.82813385327618239</v>
+        <v>-0.8229756460754849</v>
       </c>
     </row>
     <row r="740">
@@ -6010,7 +5990,7 @@
         <v>739</v>
       </c>
       <c r="B740">
-        <v>-0.85058463552459207</v>
+        <v>-0.84561642597461384</v>
       </c>
     </row>
     <row r="741">
@@ -6018,7 +5998,7 @@
         <v>740</v>
       </c>
       <c r="B741">
-        <v>-0.77021536199180363</v>
+        <v>-0.765934650260781</v>
       </c>
     </row>
     <row r="742">
@@ -6026,7 +6006,7 @@
         <v>741</v>
       </c>
       <c r="B742">
-        <v>-0.63649920321922504</v>
+        <v>-0.63340965655667847</v>
       </c>
     </row>
     <row r="743">
@@ -6034,7 +6014,7 @@
         <v>742</v>
       </c>
       <c r="B743">
-        <v>-0.5243485542165498</v>
+        <v>-0.52222716688601956</v>
       </c>
     </row>
     <row r="744">
@@ -6042,7 +6022,7 @@
         <v>743</v>
       </c>
       <c r="B744">
-        <v>0.1098439221994901</v>
+        <v>0.11075353848287801</v>
       </c>
     </row>
     <row r="745">
@@ -6050,7 +6030,7 @@
         <v>744</v>
       </c>
       <c r="B745">
-        <v>-0.017390781431519706</v>
+        <v>-0.016029577114225174</v>
       </c>
     </row>
     <row r="746">
@@ -6058,7 +6038,7 @@
         <v>745</v>
       </c>
       <c r="B746">
-        <v>-0.16999296932429819</v>
+        <v>-0.1675539685212879</v>
       </c>
     </row>
     <row r="747">
@@ -6066,7 +6046,7 @@
         <v>746</v>
       </c>
       <c r="B747">
-        <v>-0.34337684291493559</v>
+        <v>-0.34016791550459041</v>
       </c>
     </row>
     <row r="748">
@@ -6074,7 +6054,7 @@
         <v>747</v>
       </c>
       <c r="B748">
-        <v>-0.52482731831661922</v>
+        <v>-0.51968767707868146</v>
       </c>
     </row>
     <row r="749">
@@ -6082,7 +6062,7 @@
         <v>748</v>
       </c>
       <c r="B749">
-        <v>-0.53477389644300621</v>
+        <v>-0.5296332442202959</v>
       </c>
     </row>
     <row r="750">
@@ -6090,7 +6070,7 @@
         <v>749</v>
       </c>
       <c r="B750">
-        <v>-0.69386928863843922</v>
+        <v>-0.68783192485844513</v>
       </c>
     </row>
     <row r="751">
@@ -6098,7 +6078,7 @@
         <v>750</v>
       </c>
       <c r="B751">
-        <v>-0.74488346905997005</v>
+        <v>-0.73890612108007803</v>
       </c>
     </row>
     <row r="752">
@@ -6106,7 +6086,7 @@
         <v>751</v>
       </c>
       <c r="B752">
-        <v>-0.67964729214654895</v>
+        <v>-0.67426262496966805</v>
       </c>
     </row>
     <row r="753">
@@ -6114,7 +6094,7 @@
         <v>752</v>
       </c>
       <c r="B753">
-        <v>-0.5593376106027107</v>
+        <v>-0.55495778589456402</v>
       </c>
     </row>
     <row r="754">
@@ -6122,7 +6102,7 @@
         <v>753</v>
       </c>
       <c r="B754">
-        <v>-0.42532224684223358</v>
+        <v>-0.42232230524794789</v>
       </c>
     </row>
     <row r="755">
@@ -6130,7 +6110,7 @@
         <v>754</v>
       </c>
       <c r="B755">
-        <v>0.32254129454390978</v>
+        <v>0.3235835967278462</v>
       </c>
     </row>
     <row r="756">
@@ -6138,7 +6118,7 @@
         <v>755</v>
       </c>
       <c r="B756">
-        <v>0.16452446187692465</v>
+        <v>0.16591130105762991</v>
       </c>
     </row>
     <row r="757">
@@ -6146,7 +6126,7 @@
         <v>756</v>
       </c>
       <c r="B757">
-        <v>-0.021256732961538714</v>
+        <v>-0.019640990919262271</v>
       </c>
     </row>
     <row r="758">
@@ -6154,7 +6134,7 @@
         <v>757</v>
       </c>
       <c r="B758">
-        <v>-0.24207869992643749</v>
+        <v>-0.23898718239223513</v>
       </c>
     </row>
     <row r="759">
@@ -6162,7 +6142,7 @@
         <v>758</v>
       </c>
       <c r="B759">
-        <v>-0.41732292708060015</v>
+        <v>-0.4124470031731845</v>
       </c>
     </row>
     <row r="760">
@@ -6170,7 +6150,7 @@
         <v>759</v>
       </c>
       <c r="B760">
-        <v>-0.42564328494734305</v>
+        <v>-0.42076481568272728</v>
       </c>
     </row>
     <row r="761">
@@ -6178,7 +6158,7 @@
         <v>760</v>
       </c>
       <c r="B761">
-        <v>-0.58074138613077075</v>
+        <v>-0.57463376516667763</v>
       </c>
     </row>
     <row r="762">
@@ -6186,7 +6166,7 @@
         <v>761</v>
       </c>
       <c r="B762">
-        <v>-0.65829529778625828</v>
+        <v>-0.65121711304206198</v>
       </c>
     </row>
     <row r="763">
@@ -6194,7 +6174,7 @@
         <v>762</v>
       </c>
       <c r="B763">
-        <v>-0.57947014802677788</v>
+        <v>-0.57309035358991267</v>
       </c>
     </row>
     <row r="764">
@@ -6202,7 +6182,7 @@
         <v>763</v>
       </c>
       <c r="B764">
-        <v>-0.45951547688018329</v>
+        <v>-0.45370157413103285</v>
       </c>
     </row>
     <row r="765">
@@ -6210,7 +6190,7 @@
         <v>764</v>
       </c>
       <c r="B765">
-        <v>-0.32443795959860161</v>
+        <v>-0.31939196919111529</v>
       </c>
     </row>
     <row r="766">
@@ -6218,7 +6198,7 @@
         <v>765</v>
       </c>
       <c r="B766">
-        <v>0.45826379641025128</v>
+        <v>0.46026712787336788</v>
       </c>
     </row>
     <row r="767">
@@ -6226,7 +6206,7 @@
         <v>766</v>
       </c>
       <c r="B767">
-        <v>0.33074417903748016</v>
+        <v>0.33315702658762092</v>
       </c>
     </row>
     <row r="768">
@@ -6234,7 +6214,7 @@
         <v>767</v>
       </c>
       <c r="B768">
-        <v>0.15261109886533972</v>
+        <v>0.1553333230122442</v>
       </c>
     </row>
     <row r="769">
@@ -6242,7 +6222,7 @@
         <v>768</v>
       </c>
       <c r="B769">
-        <v>-0.09964553160283858</v>
+        <v>-0.095930154281364644</v>
       </c>
     </row>
     <row r="770">
@@ -6250,7 +6230,7 @@
         <v>769</v>
       </c>
       <c r="B770">
-        <v>-0.31825357210428118</v>
+        <v>-0.31271921485040582</v>
       </c>
     </row>
     <row r="771">
@@ -6258,7 +6238,7 @@
         <v>770</v>
       </c>
       <c r="B771">
-        <v>-0.31801712833994183</v>
+        <v>-0.31245030380286865</v>
       </c>
     </row>
     <row r="772">
@@ -6266,7 +6246,7 @@
         <v>771</v>
       </c>
       <c r="B772">
-        <v>-0.51478340818303681</v>
+        <v>-0.50768099899807706</v>
       </c>
     </row>
     <row r="773">
@@ -6274,7 +6254,7 @@
         <v>772</v>
       </c>
       <c r="B773">
-        <v>-0.57065437682316011</v>
+        <v>-0.56301640945870601</v>
       </c>
     </row>
     <row r="774">
@@ -6282,7 +6262,7 @@
         <v>773</v>
       </c>
       <c r="B774">
-        <v>-0.49958786826537149</v>
+        <v>-0.49214657947518509</v>
       </c>
     </row>
     <row r="775">
@@ -6290,7 +6270,7 @@
         <v>774</v>
       </c>
       <c r="B775">
-        <v>-0.34007402560560118</v>
+        <v>-0.33365936554097131</v>
       </c>
     </row>
     <row r="776">
@@ -6298,7 +6278,7 @@
         <v>775</v>
       </c>
       <c r="B776">
-        <v>0.36023185080059317</v>
+        <v>0.36387123824143475</v>
       </c>
     </row>
     <row r="777">
@@ -6306,7 +6286,7 @@
         <v>776</v>
       </c>
       <c r="B777">
-        <v>0.16112828580808783</v>
+        <v>0.16562784591535964</v>
       </c>
     </row>
     <row r="778">
@@ -6314,7 +6294,7 @@
         <v>777</v>
       </c>
       <c r="B778">
-        <v>-0.072486540335994804</v>
+        <v>-0.066854530029504644</v>
       </c>
     </row>
     <row r="779">
@@ -6322,7 +6302,7 @@
         <v>778</v>
       </c>
       <c r="B779">
-        <v>-0.47631339161847636</v>
+        <v>-0.46867593610894914</v>
       </c>
     </row>
     <row r="780">
@@ -6330,7 +6310,7 @@
         <v>779</v>
       </c>
       <c r="B780">
-        <v>-0.52099104422773079</v>
+        <v>-0.51285172810068813</v>
       </c>
     </row>
     <row r="781">
@@ -6338,7 +6318,7 @@
         <v>780</v>
       </c>
       <c r="B781">
-        <v>0.41258660500950572</v>
+        <v>0.41626263206131819</v>
       </c>
     </row>
     <row r="782">
@@ -6346,7 +6326,7 @@
         <v>781</v>
       </c>
       <c r="B782">
-        <v>0.18459115392843284</v>
+        <v>0.18911919017074214</v>
       </c>
     </row>
     <row r="783">
@@ -6354,7 +6334,7 @@
         <v>782</v>
       </c>
       <c r="B783">
-        <v>-0.056638604722040638</v>
+        <v>-0.050965518823641302</v>
       </c>
     </row>
     <row r="784">
@@ -6362,7 +6342,7 @@
         <v>783</v>
       </c>
       <c r="B784">
-        <v>-0.43675846826960957</v>
+        <v>-0.42911487197861081</v>
       </c>
     </row>
     <row r="785">
@@ -6370,7 +6350,7 @@
         <v>784</v>
       </c>
       <c r="B785">
-        <v>-0.47579796971719435</v>
+        <v>-0.46769976366853033</v>
       </c>
     </row>
     <row r="786">
@@ -6378,7 +6358,7 @@
         <v>785</v>
       </c>
       <c r="B786">
-        <v>0.48168016814898834</v>
+        <v>0.47397278289824052</v>
       </c>
     </row>
     <row r="787">
@@ -6386,7 +6366,7 @@
         <v>786</v>
       </c>
       <c r="B787">
-        <v>0.49944629745848518</v>
+        <v>0.49278633260855065</v>
       </c>
     </row>
     <row r="788">
@@ -6394,7 +6374,7 @@
         <v>787</v>
       </c>
       <c r="B788">
-        <v>0.50561149821900842</v>
+        <v>0.50062601632743065</v>
       </c>
     </row>
     <row r="789">
@@ -6402,7 +6382,7 @@
         <v>788</v>
       </c>
       <c r="B789">
-        <v>0.5092158259728059</v>
+        <v>0.50421393238541801</v>
       </c>
     </row>
     <row r="790">
@@ -6410,7 +6390,7 @@
         <v>789</v>
       </c>
       <c r="B790">
-        <v>0.14523136414144186</v>
+        <v>0.1391097006013374</v>
       </c>
     </row>
     <row r="791">
@@ -6418,7 +6398,7 @@
         <v>790</v>
       </c>
       <c r="B791">
-        <v>0.18589081460404552</v>
+        <v>0.1800341722001377</v>
       </c>
     </row>
     <row r="792">
@@ -6426,7 +6406,7 @@
         <v>791</v>
       </c>
       <c r="B792">
-        <v>0.21156290013410864</v>
+        <v>0.20658620736127847</v>
       </c>
     </row>
     <row r="793">
@@ -6434,7 +6414,7 @@
         <v>792</v>
       </c>
       <c r="B793">
-        <v>0.1943328652543736</v>
+        <v>0.19162857511008402</v>
       </c>
     </row>
     <row r="794">
@@ -6442,7 +6422,7 @@
         <v>793</v>
       </c>
       <c r="B794">
-        <v>0.15432401925304223</v>
+        <v>0.15155464312644912</v>
       </c>
     </row>
     <row r="795">
@@ -6450,7 +6430,7 @@
         <v>794</v>
       </c>
       <c r="B795">
-        <v>0.061246175484761259</v>
+        <v>0.059519277818513933</v>
       </c>
     </row>
     <row r="796">
@@ -6458,7 +6438,7 @@
         <v>795</v>
       </c>
       <c r="B796">
-        <v>0.022755930309509932</v>
+        <v>0.02173944568925381</v>
       </c>
     </row>
     <row r="797">
@@ -6466,7 +6446,7 @@
         <v>796</v>
       </c>
       <c r="B797">
-        <v>-0.045663103958976173</v>
+        <v>-0.048683921476717629</v>
       </c>
     </row>
     <row r="798">
@@ -6474,7 +6454,7 @@
         <v>797</v>
       </c>
       <c r="B798">
-        <v>-0.092924975067173343</v>
+        <v>-0.09612030370367744</v>
       </c>
     </row>
     <row r="799">
@@ -6482,7 +6462,7 @@
         <v>798</v>
       </c>
       <c r="B799">
-        <v>-0.049666146426217458</v>
+        <v>-0.052581785976823961</v>
       </c>
     </row>
     <row r="800">
@@ -6490,7 +6470,7 @@
         <v>799</v>
       </c>
       <c r="B800">
-        <v>-0.033317422401691409</v>
+        <v>-0.035418486778365954</v>
       </c>
     </row>
     <row r="801">
@@ -6498,7 +6478,7 @@
         <v>800</v>
       </c>
       <c r="B801">
-        <v>-0.07499846883711965</v>
+        <v>-0.074868967625616345</v>
       </c>
     </row>
     <row r="802">
@@ -6506,7 +6486,7 @@
         <v>801</v>
       </c>
       <c r="B802">
-        <v>-0.11595731520912909</v>
+        <v>-0.11589779600517849</v>
       </c>
     </row>
     <row r="803">
@@ -6514,7 +6494,7 @@
         <v>802</v>
       </c>
       <c r="B803">
-        <v>-0.21619291289835682</v>
+        <v>-0.21483326894579904</v>
       </c>
     </row>
     <row r="804">
@@ -6522,7 +6502,7 @@
         <v>803</v>
       </c>
       <c r="B804">
-        <v>-0.30812927735477524</v>
+        <v>-0.30644663371453784</v>
       </c>
     </row>
     <row r="805">
@@ -6530,7 +6510,7 @@
         <v>804</v>
       </c>
       <c r="B805">
-        <v>-0.30842170901472354</v>
+        <v>-0.30814556210985061</v>
       </c>
     </row>
     <row r="806">
@@ -6538,7 +6518,7 @@
         <v>805</v>
       </c>
       <c r="B806">
-        <v>-0.037001912651925047</v>
+        <v>-0.039931252045395611</v>
       </c>
     </row>
     <row r="807">
@@ -6546,7 +6526,7 @@
         <v>806</v>
       </c>
       <c r="B807">
-        <v>-0.068869148490172019</v>
+        <v>-0.071942224733844595</v>
       </c>
     </row>
     <row r="808">
@@ -6554,7 +6534,7 @@
         <v>807</v>
       </c>
       <c r="B808">
-        <v>-0.03594038985742487</v>
+        <v>-0.03873748481868787</v>
       </c>
     </row>
     <row r="809">
@@ -6562,7 +6542,7 @@
         <v>808</v>
       </c>
       <c r="B809">
-        <v>-0.01806312011092066</v>
+        <v>-0.020047446108150475</v>
       </c>
     </row>
     <row r="810">
@@ -6570,7 +6550,7 @@
         <v>809</v>
       </c>
       <c r="B810">
-        <v>-0.057238634355673938</v>
+        <v>-0.057029931796913479</v>
       </c>
     </row>
     <row r="811">
@@ -6578,7 +6558,7 @@
         <v>810</v>
       </c>
       <c r="B811">
-        <v>-0.10900695801683681</v>
+        <v>-0.10888604157836432</v>
       </c>
     </row>
     <row r="812">
@@ -6586,7 +6566,7 @@
         <v>811</v>
       </c>
       <c r="B812">
-        <v>-0.21734700077400881</v>
+        <v>-0.21595406403347395</v>
       </c>
     </row>
     <row r="813">
@@ -6594,7 +6574,7 @@
         <v>812</v>
       </c>
       <c r="B813">
-        <v>-0.3079053058788046</v>
+        <v>-0.30619659973194324</v>
       </c>
     </row>
     <row r="814">
@@ -6602,7 +6582,7 @@
         <v>813</v>
       </c>
       <c r="B814">
-        <v>-0.31877251030713144</v>
+        <v>-0.31845793113048942</v>
       </c>
     </row>
     <row r="815">
@@ -6610,7 +6590,7 @@
         <v>814</v>
       </c>
       <c r="B815">
-        <v>-0.055706436882460526</v>
+        <v>-0.056826800222621369</v>
       </c>
     </row>
     <row r="816">
@@ -6618,7 +6598,7 @@
         <v>815</v>
       </c>
       <c r="B816">
-        <v>-0.077229321403290085</v>
+        <v>-0.077454582439785952</v>
       </c>
     </row>
     <row r="817">
@@ -6626,7 +6606,7 @@
         <v>816</v>
       </c>
       <c r="B817">
-        <v>-0.085042241594990881</v>
+        <v>-0.084404683244388407</v>
       </c>
     </row>
     <row r="818">
@@ -6634,7 +6614,7 @@
         <v>817</v>
       </c>
       <c r="B818">
-        <v>-0.12144198790249207</v>
+        <v>-0.12062877447846145</v>
       </c>
     </row>
     <row r="819">
@@ -6642,7 +6622,7 @@
         <v>818</v>
       </c>
       <c r="B819">
-        <v>-0.2699612738573155</v>
+        <v>-0.26797819739290807</v>
       </c>
     </row>
     <row r="820">
@@ -6650,7 +6630,7 @@
         <v>819</v>
       </c>
       <c r="B820">
-        <v>-0.3023876006446819</v>
+        <v>-0.30044117733650855</v>
       </c>
     </row>
     <row r="821">
@@ -6658,7 +6638,7 @@
         <v>820</v>
       </c>
       <c r="B821">
-        <v>-0.4573370056678443</v>
+        <v>-0.45433273627573378</v>
       </c>
     </row>
     <row r="822">
@@ -6666,7 +6646,7 @@
         <v>821</v>
       </c>
       <c r="B822">
-        <v>-0.57033458295249462</v>
+        <v>-0.56733157894293018</v>
       </c>
     </row>
     <row r="823">
@@ -6674,7 +6654,7 @@
         <v>822</v>
       </c>
       <c r="B823">
-        <v>-0.56537535147303819</v>
+        <v>-0.56386043229651783</v>
       </c>
     </row>
     <row r="824">
@@ -6682,7 +6662,7 @@
         <v>823</v>
       </c>
       <c r="B824">
-        <v>-0.4372311853589651</v>
+        <v>-0.43729181118033894</v>
       </c>
     </row>
     <row r="825">
@@ -6690,7 +6670,7 @@
         <v>824</v>
       </c>
       <c r="B825">
-        <v>0.0068274384938365939</v>
+        <v>0.0076101697604978955</v>
       </c>
     </row>
     <row r="826">
@@ -6698,7 +6678,7 @@
         <v>825</v>
       </c>
       <c r="B826">
-        <v>0.016498097660374949</v>
+        <v>0.018104664337545442</v>
       </c>
     </row>
     <row r="827">
@@ -6706,7 +6686,7 @@
         <v>826</v>
       </c>
       <c r="B827">
-        <v>-0.053107005974462315</v>
+        <v>-0.050748814415222297</v>
       </c>
     </row>
     <row r="828">
@@ -6714,7 +6694,7 @@
         <v>827</v>
       </c>
       <c r="B828">
-        <v>-0.17063962883774061</v>
+        <v>-0.16818776960965098</v>
       </c>
     </row>
     <row r="829">
@@ -6722,7 +6702,7 @@
         <v>828</v>
       </c>
       <c r="B829">
-        <v>-0.32722336294890242</v>
+        <v>-0.32357275115519218</v>
       </c>
     </row>
     <row r="830">
@@ -6730,7 +6710,7 @@
         <v>829</v>
       </c>
       <c r="B830">
-        <v>-0.34856192875057812</v>
+        <v>-0.34493569407794605</v>
       </c>
     </row>
     <row r="831">
@@ -6738,7 +6718,7 @@
         <v>830</v>
       </c>
       <c r="B831">
-        <v>-0.54478028226518549</v>
+        <v>-0.54026476621634223</v>
       </c>
     </row>
     <row r="832">
@@ -6746,7 +6726,7 @@
         <v>831</v>
       </c>
       <c r="B832">
-        <v>-0.65012652210780786</v>
+        <v>-0.64622501768712948</v>
       </c>
     </row>
     <row r="833">
@@ -6754,7 +6734,7 @@
         <v>832</v>
       </c>
       <c r="B833">
-        <v>-0.62186672883758254</v>
+        <v>-0.61940881759007071</v>
       </c>
     </row>
     <row r="834">
@@ -6762,7 +6742,7 @@
         <v>833</v>
       </c>
       <c r="B834">
-        <v>-0.52495577416883199</v>
+        <v>-0.52348144574486166</v>
       </c>
     </row>
     <row r="835">
@@ -6770,7 +6750,7 @@
         <v>834</v>
       </c>
       <c r="B835">
-        <v>0.17009097957651736</v>
+        <v>0.17175907319052522</v>
       </c>
     </row>
     <row r="836">
@@ -6778,7 +6758,7 @@
         <v>835</v>
       </c>
       <c r="B836">
-        <v>0.13686676542173412</v>
+        <v>0.13934838423983992</v>
       </c>
     </row>
     <row r="837">
@@ -6786,7 +6766,7 @@
         <v>836</v>
       </c>
       <c r="B837">
-        <v>0.018849459651491419</v>
+        <v>0.021600823437714359</v>
       </c>
     </row>
     <row r="838">
@@ -6794,7 +6774,7 @@
         <v>837</v>
       </c>
       <c r="B838">
-        <v>-0.11238222832957168</v>
+        <v>-0.10918883734955565</v>
       </c>
     </row>
     <row r="839">
@@ -6802,7 +6782,7 @@
         <v>838</v>
       </c>
       <c r="B839">
-        <v>-0.2984611554619378</v>
+        <v>-0.29457875059565225</v>
       </c>
     </row>
     <row r="840">
@@ -6810,7 +6790,7 @@
         <v>839</v>
       </c>
       <c r="B840">
-        <v>-0.31620729602824837</v>
+        <v>-0.3123464724999791</v>
       </c>
     </row>
     <row r="841">
@@ -6818,7 +6798,7 @@
         <v>840</v>
       </c>
       <c r="B841">
-        <v>-0.50567794870573612</v>
+        <v>-0.50147769409739629</v>
       </c>
     </row>
     <row r="842">
@@ -6826,7 +6806,7 @@
         <v>841</v>
       </c>
       <c r="B842">
-        <v>-0.60788198037120911</v>
+        <v>-0.60311774025798581</v>
       </c>
     </row>
     <row r="843">
@@ -6834,7 +6814,7 @@
         <v>842</v>
       </c>
       <c r="B843">
-        <v>-0.56362674466038498</v>
+        <v>-0.55969299281010776</v>
       </c>
     </row>
     <row r="844">
@@ -6842,7 +6822,7 @@
         <v>843</v>
       </c>
       <c r="B844">
-        <v>-0.49681290892926933</v>
+        <v>-0.49379827033274393</v>
       </c>
     </row>
     <row r="845">
@@ -6850,7 +6830,7 @@
         <v>844</v>
       </c>
       <c r="B845">
-        <v>0.32356174305618679</v>
+        <v>0.32535750269729702</v>
       </c>
     </row>
     <row r="846">
@@ -6858,7 +6838,7 @@
         <v>845</v>
       </c>
       <c r="B846">
-        <v>0.25006226594583369</v>
+        <v>0.25235646109973814</v>
       </c>
     </row>
     <row r="847">
@@ -6866,7 +6846,7 @@
         <v>846</v>
       </c>
       <c r="B847">
-        <v>0.12970554983896659</v>
+        <v>0.13237526530332747</v>
       </c>
     </row>
     <row r="848">
@@ -6874,7 +6854,7 @@
         <v>847</v>
       </c>
       <c r="B848">
-        <v>-0.017987639969698113</v>
+        <v>-0.014890000330083124</v>
       </c>
     </row>
     <row r="849">
@@ -6882,7 +6862,7 @@
         <v>848</v>
       </c>
       <c r="B849">
-        <v>-0.192870537602776</v>
+        <v>-0.18799237325421952</v>
       </c>
     </row>
     <row r="850">
@@ -6890,7 +6870,7 @@
         <v>849</v>
       </c>
       <c r="B850">
-        <v>-0.20235763681307783</v>
+        <v>-0.19746757233383597</v>
       </c>
     </row>
     <row r="851">
@@ -6898,7 +6878,7 @@
         <v>850</v>
       </c>
       <c r="B851">
-        <v>-0.3392484011639072</v>
+        <v>-0.33380705023567153</v>
       </c>
     </row>
     <row r="852">
@@ -6906,7 +6886,7 @@
         <v>851</v>
       </c>
       <c r="B852">
-        <v>-0.43660721004279757</v>
+        <v>-0.43092598781638641</v>
       </c>
     </row>
     <row r="853">
@@ -6914,7 +6894,7 @@
         <v>852</v>
       </c>
       <c r="B853">
-        <v>-0.4050826696208385</v>
+        <v>-0.39981617537754621</v>
       </c>
     </row>
     <row r="854">
@@ -6922,7 +6902,7 @@
         <v>853</v>
       </c>
       <c r="B854">
-        <v>-0.38577713170279659</v>
+        <v>-0.38157380463591339</v>
       </c>
     </row>
     <row r="855">
@@ -6930,7 +6910,7 @@
         <v>854</v>
       </c>
       <c r="B855">
-        <v>0.46060651703862343</v>
+        <v>0.46261562618137952</v>
       </c>
     </row>
     <row r="856">
@@ -6938,7 +6918,7 @@
         <v>855</v>
       </c>
       <c r="B856">
-        <v>0.36426571739849584</v>
+        <v>0.36651114518169531</v>
       </c>
     </row>
     <row r="857">
@@ -6946,7 +6926,7 @@
         <v>856</v>
       </c>
       <c r="B857">
-        <v>0.2314389192593643</v>
+        <v>0.23437499447415786</v>
       </c>
     </row>
     <row r="858">
@@ -6954,7 +6934,7 @@
         <v>857</v>
       </c>
       <c r="B858">
-        <v>0.054670207110180689</v>
+        <v>0.058497431264616616</v>
       </c>
     </row>
     <row r="859">
@@ -6962,7 +6942,7 @@
         <v>858</v>
       </c>
       <c r="B859">
-        <v>-0.10844467308939448</v>
+        <v>-0.10327008369264357</v>
       </c>
     </row>
     <row r="860">
@@ -6970,7 +6950,7 @@
         <v>859</v>
       </c>
       <c r="B860">
-        <v>-0.10556788148083862</v>
+        <v>-0.10037760486391624</v>
       </c>
     </row>
     <row r="861">
@@ -6978,7 +6958,7 @@
         <v>860</v>
       </c>
       <c r="B861">
-        <v>-0.23163198204705512</v>
+        <v>-0.22587670273105184</v>
       </c>
     </row>
     <row r="862">
@@ -6986,7 +6966,7 @@
         <v>861</v>
       </c>
       <c r="B862">
-        <v>-0.30849106951664057</v>
+        <v>-0.30174828649873464</v>
       </c>
     </row>
     <row r="863">
@@ -6994,7 +6974,7 @@
         <v>862</v>
       </c>
       <c r="B863">
-        <v>-0.30159661932085546</v>
+        <v>-0.29501171691480182</v>
       </c>
     </row>
     <row r="864">
@@ -7002,7 +6982,7 @@
         <v>863</v>
       </c>
       <c r="B864">
-        <v>-0.25221737538218447</v>
+        <v>-0.24622292739970106</v>
       </c>
     </row>
     <row r="865">
@@ -7010,7 +6990,7 @@
         <v>864</v>
       </c>
       <c r="B865">
-        <v>0.57326022621766803</v>
+        <v>0.57619136870349441</v>
       </c>
     </row>
     <row r="866">
@@ -7018,7 +6998,7 @@
         <v>865</v>
       </c>
       <c r="B866">
-        <v>0.47512695226268059</v>
+        <v>0.47830501210594784</v>
       </c>
     </row>
     <row r="867">
@@ -7026,7 +7006,7 @@
         <v>866</v>
       </c>
       <c r="B867">
-        <v>0.33696501798241468</v>
+        <v>0.34065313190574625</v>
       </c>
     </row>
     <row r="868">
@@ -7034,7 +7014,7 @@
         <v>867</v>
       </c>
       <c r="B868">
-        <v>0.15386612006703076</v>
+        <v>0.15874888962176484</v>
       </c>
     </row>
     <row r="869">
@@ -7042,7 +7022,7 @@
         <v>868</v>
       </c>
       <c r="B869">
-        <v>-0.013203097016190449</v>
+        <v>-0.0069509942974786696</v>
       </c>
     </row>
     <row r="870">
@@ -7050,7 +7030,7 @@
         <v>869</v>
       </c>
       <c r="B870">
-        <v>-0.014525452138345576</v>
+        <v>-0.0082770072404890239</v>
       </c>
     </row>
     <row r="871">
@@ -7058,7 +7038,7 @@
         <v>870</v>
       </c>
       <c r="B871">
-        <v>-0.14932059493731167</v>
+        <v>-0.14196966977721373</v>
       </c>
     </row>
     <row r="872">
@@ -7066,7 +7046,7 @@
         <v>871</v>
       </c>
       <c r="B872">
-        <v>-0.19939334784758334</v>
+        <v>-0.19131018716352868</v>
       </c>
     </row>
     <row r="873">
@@ -7074,7 +7054,7 @@
         <v>872</v>
       </c>
       <c r="B873">
-        <v>-0.19696504883471352</v>
+        <v>-0.18901272465790558</v>
       </c>
     </row>
     <row r="874">
@@ -7082,7 +7062,7 @@
         <v>873</v>
       </c>
       <c r="B874">
-        <v>-0.097340098524493143</v>
+        <v>-0.090287418884336598</v>
       </c>
     </row>
     <row r="875">
@@ -7090,7 +7070,7 @@
         <v>874</v>
       </c>
       <c r="B875">
-        <v>0.21611465785781372</v>
+        <v>0.21260527697801265</v>
       </c>
     </row>
     <row r="876">
@@ -7098,7 +7078,7 @@
         <v>875</v>
       </c>
       <c r="B876">
-        <v>0.13591657992075365</v>
+        <v>0.13363315941696563</v>
       </c>
     </row>
     <row r="877">
@@ -7106,7 +7086,7 @@
         <v>876</v>
       </c>
       <c r="B877">
-        <v>0.10005644602214064</v>
+        <v>0.097759758897742841</v>
       </c>
     </row>
     <row r="878">
@@ -7114,7 +7094,7 @@
         <v>877</v>
       </c>
       <c r="B878">
-        <v>-0.022380169949797028</v>
+        <v>-0.022627420474319423</v>
       </c>
     </row>
     <row r="879">
@@ -7122,7 +7102,7 @@
         <v>878</v>
       </c>
       <c r="B879">
-        <v>0.25217017265405151</v>
+        <v>0.24797228908167687</v>
       </c>
     </row>
     <row r="880">
@@ -7130,7 +7110,7 @@
         <v>879</v>
       </c>
       <c r="B880">
-        <v>0.22320791148574642</v>
+        <v>0.21974185790778042</v>
       </c>
     </row>
     <row r="881">
@@ -7138,7 +7118,7 @@
         <v>880</v>
       </c>
       <c r="B881">
-        <v>0.14271475214427382</v>
+        <v>0.14049551321331757</v>
       </c>
     </row>
     <row r="882">
@@ -7146,7 +7126,7 @@
         <v>881</v>
       </c>
       <c r="B882">
-        <v>0.11335619909155448</v>
+        <v>0.11110916108606217</v>
       </c>
     </row>
     <row r="883">
@@ -7154,7 +7134,7 @@
         <v>882</v>
       </c>
       <c r="B883">
-        <v>-0.022188538653400376</v>
+        <v>-0.022410602367116495</v>
       </c>
     </row>
     <row r="884">
@@ -7162,7 +7142,7 @@
         <v>883</v>
       </c>
       <c r="B884">
-        <v>-0.13168203359867228</v>
+        <v>-0.13107893414972857</v>
       </c>
     </row>
     <row r="885">
@@ -7170,7 +7150,7 @@
         <v>884</v>
       </c>
       <c r="B885">
-        <v>0.21715601997785694</v>
+        <v>0.21576741622790716</v>
       </c>
     </row>
     <row r="886">
@@ -7178,7 +7158,7 @@
         <v>885</v>
       </c>
       <c r="B886">
-        <v>0.20894913279844732</v>
+        <v>0.20765892794082996</v>
       </c>
     </row>
     <row r="887">
@@ -7186,7 +7166,7 @@
         <v>886</v>
       </c>
       <c r="B887">
-        <v>0.15586999226478448</v>
+        <v>0.15432815540428199</v>
       </c>
     </row>
     <row r="888">
@@ -7194,7 +7174,7 @@
         <v>887</v>
       </c>
       <c r="B888">
-        <v>0.031482920730455333</v>
+        <v>0.03125944705062704</v>
       </c>
     </row>
     <row r="889">
@@ -7202,7 +7182,7 @@
         <v>888</v>
       </c>
       <c r="B889">
-        <v>0.0094871724920576085</v>
+        <v>0.0092724994754941892</v>
       </c>
     </row>
     <row r="890">
@@ -7210,7 +7190,7 @@
         <v>889</v>
       </c>
       <c r="B890">
-        <v>-0.16650324025838054</v>
+        <v>-0.16528852238980662</v>
       </c>
     </row>
     <row r="891">
@@ -7218,7 +7198,7 @@
         <v>890</v>
       </c>
       <c r="B891">
-        <v>-0.33194396286872907</v>
+        <v>-0.32953579814944345</v>
       </c>
     </row>
     <row r="892">
@@ -7226,7 +7206,7 @@
         <v>891</v>
       </c>
       <c r="B892">
-        <v>0.28405585014041229</v>
+        <v>0.28467043041132456</v>
       </c>
     </row>
     <row r="893">
@@ -7234,7 +7214,7 @@
         <v>892</v>
       </c>
       <c r="B893">
-        <v>0.28681271215432325</v>
+        <v>0.28764656020058571</v>
       </c>
     </row>
     <row r="894">
@@ -7242,7 +7222,7 @@
         <v>893</v>
       </c>
       <c r="B894">
-        <v>0.23140426117963023</v>
+        <v>0.23223533721670592</v>
       </c>
     </row>
     <row r="895">
@@ -7250,7 +7230,7 @@
         <v>894</v>
       </c>
       <c r="B895">
-        <v>0.14643337717285948</v>
+        <v>0.14678713018974732</v>
       </c>
     </row>
     <row r="896">
@@ -7258,7 +7238,7 @@
         <v>895</v>
       </c>
       <c r="B896">
-        <v>0.010419260670364744</v>
+        <v>0.011778353137144426</v>
       </c>
     </row>
     <row r="897">
@@ -7266,7 +7246,7 @@
         <v>896</v>
       </c>
       <c r="B897">
-        <v>-0.0055460498119556303</v>
+        <v>-0.0041822113898828724</v>
       </c>
     </row>
     <row r="898">
@@ -7274,7 +7254,7 @@
         <v>897</v>
       </c>
       <c r="B898">
-        <v>-0.19788319673885024</v>
+        <v>-0.19582058517457612</v>
       </c>
     </row>
     <row r="899">
@@ -7282,7 +7262,7 @@
         <v>898</v>
       </c>
       <c r="B899">
-        <v>-0.3745404795511118</v>
+        <v>-0.37188605561047455</v>
       </c>
     </row>
     <row r="900">
@@ -7290,7 +7270,7 @@
         <v>899</v>
       </c>
       <c r="B900">
-        <v>0.39278876699855347</v>
+        <v>0.39443759053238803</v>
       </c>
     </row>
     <row r="901">
@@ -7298,7 +7278,7 @@
         <v>900</v>
       </c>
       <c r="B901">
-        <v>0.3826569477667876</v>
+        <v>0.38454568917043386</v>
       </c>
     </row>
     <row r="902">
@@ -7306,7 +7286,7 @@
         <v>901</v>
       </c>
       <c r="B902">
-        <v>0.28106967864827725</v>
+        <v>0.28319166437521398</v>
       </c>
     </row>
     <row r="903">
@@ -7314,7 +7294,7 @@
         <v>902</v>
       </c>
       <c r="B903">
-        <v>0.16015819142674664</v>
+        <v>0.16175940628814786</v>
       </c>
     </row>
     <row r="904">
@@ -7322,7 +7302,7 @@
         <v>903</v>
       </c>
       <c r="B904">
-        <v>0.055754284054092017</v>
+        <v>0.057585059617506609</v>
       </c>
     </row>
     <row r="905">
@@ -7330,7 +7310,7 @@
         <v>904</v>
       </c>
       <c r="B905">
-        <v>0.042042182904953998</v>
+        <v>0.043869968207365127</v>
       </c>
     </row>
     <row r="906">
@@ -7338,7 +7318,7 @@
         <v>905</v>
       </c>
       <c r="B906">
-        <v>-0.12670018677418593</v>
+        <v>-0.12400897834269407</v>
       </c>
     </row>
     <row r="907">
@@ -7346,7 +7326,7 @@
         <v>906</v>
       </c>
       <c r="B907">
-        <v>-0.26223583146098439</v>
+        <v>-0.25916611486104368</v>
       </c>
     </row>
     <row r="908">
@@ -7354,7 +7334,7 @@
         <v>907</v>
       </c>
       <c r="B908">
-        <v>0.52115781068515099</v>
+        <v>0.52329609851009717</v>
       </c>
     </row>
     <row r="909">
@@ -7362,7 +7342,7 @@
         <v>908</v>
       </c>
       <c r="B909">
-        <v>0.45949975875883098</v>
+        <v>0.46157291636560699</v>
       </c>
     </row>
     <row r="910">
@@ -7370,7 +7350,7 @@
         <v>909</v>
       </c>
       <c r="B910">
-        <v>0.35729927318088256</v>
+        <v>0.35898118428520498</v>
       </c>
     </row>
     <row r="911">
@@ -7378,7 +7358,7 @@
         <v>910</v>
       </c>
       <c r="B911">
-        <v>0.24036223154529193</v>
+        <v>0.24228912378410022</v>
       </c>
     </row>
     <row r="912">
@@ -7386,7 +7366,7 @@
         <v>911</v>
       </c>
       <c r="B912">
-        <v>0.09634734565102758</v>
+        <v>0.098981338528087062</v>
       </c>
     </row>
     <row r="913">
@@ -7394,7 +7374,7 @@
         <v>912</v>
       </c>
       <c r="B913">
-        <v>0.090231296960385982</v>
+        <v>0.092857622007456841</v>
       </c>
     </row>
     <row r="914">
@@ -7402,7 +7382,7 @@
         <v>913</v>
       </c>
       <c r="B914">
-        <v>-0.017933769551431278</v>
+        <v>-0.014439928279608076</v>
       </c>
     </row>
     <row r="915">
@@ -7410,7 +7390,7 @@
         <v>914</v>
       </c>
       <c r="B915">
-        <v>-0.140601326004027</v>
+        <v>-0.1360258449496409</v>
       </c>
     </row>
     <row r="916">
@@ -7418,7 +7398,7 @@
         <v>915</v>
       </c>
       <c r="B916">
-        <v>-0.2184627698748331</v>
+        <v>-0.21465652669332394</v>
       </c>
     </row>
     <row r="917">
@@ -7426,7 +7406,7 @@
         <v>916</v>
       </c>
       <c r="B917">
-        <v>0.43072061478906765</v>
+        <v>0.43348906236258383</v>
       </c>
     </row>
     <row r="918">
@@ -7434,7 +7414,7 @@
         <v>917</v>
       </c>
       <c r="B918">
-        <v>0.28077987784824571</v>
+        <v>0.28451781869606013</v>
       </c>
     </row>
     <row r="919">
@@ -7442,7 +7422,7 @@
         <v>918</v>
       </c>
       <c r="B919">
-        <v>0.17157007534327473</v>
+        <v>0.17574402043340601</v>
       </c>
     </row>
     <row r="920">
@@ -7450,7 +7430,7 @@
         <v>919</v>
       </c>
       <c r="B920">
-        <v>0.17148445334067217</v>
+        <v>0.17564319450438995</v>
       </c>
     </row>
     <row r="921">
@@ -7458,7 +7438,7 @@
         <v>920</v>
       </c>
       <c r="B921">
-        <v>0.061872106316215959</v>
+        <v>0.066898597705346161</v>
       </c>
     </row>
     <row r="922">
@@ -7466,7 +7446,7 @@
         <v>921</v>
       </c>
       <c r="B922">
-        <v>-0.029885564415915208</v>
+        <v>-0.024409019063662451</v>
       </c>
     </row>
   </sheetData>
